--- a/data/Class UKG - Examination Results.xlsx
+++ b/data/Class UKG - Examination Results.xlsx
@@ -5,16 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Report-Card\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Arcadia school\final examinantion 2023 excel files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F825CD4-FC0C-4A17-AC3C-E0A7F237A996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F3C769-CF25-4F4A-8E80-B2FD6D487E79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="13200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Class" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Class!$D$1:$D$35</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -24,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -347,9 +348,6 @@
     <t>Anupama</t>
   </si>
   <si>
-    <t>Ranuka Joshi</t>
-  </si>
-  <si>
     <t>Govind Ballabh Joshi</t>
   </si>
   <si>
@@ -528,13 +526,16 @@
   </si>
   <si>
     <t>14-04-2017</t>
+  </si>
+  <si>
+    <t>Renuka Joshi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -903,6 +904,15 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -938,15 +948,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1165,124 +1166,124 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BD35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.4609375" defaultRowHeight="12.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="5.69140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.15234375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.4609375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.69140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.84375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.69140625" style="49" customWidth="1"/>
-    <col min="7" max="7" width="23.84375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.53515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.23046875" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.84375" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="4.53515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.23046875" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.84375" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="4.53515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.23046875" style="3" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="6.84375" style="3" bestFit="1" customWidth="1"/>
-    <col min="23" max="26" width="4.53515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.23046875" style="3" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="6.84375" style="3" bestFit="1" customWidth="1"/>
-    <col min="29" max="32" width="4.53515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="4.53515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="6.84375" style="1" bestFit="1" customWidth="1"/>
-    <col min="35" max="39" width="4.53515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="6.84375" style="1" bestFit="1" customWidth="1"/>
-    <col min="41" max="45" width="4.53515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="6.84375" style="1" bestFit="1" customWidth="1"/>
-    <col min="47" max="50" width="4.53515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="4.07421875" style="1" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="6.84375" style="1" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="5.69140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="11.53515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="12.765625" style="1" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="16.3828125" style="1" bestFit="1" customWidth="1"/>
-    <col min="57" max="16384" width="14.4609375" style="1"/>
+    <col min="1" max="1" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6640625" style="37" customWidth="1"/>
+    <col min="7" max="7" width="23.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="4.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="4.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="6.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="23" max="26" width="4.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="9.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="6.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="29" max="32" width="4.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="4.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="6.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="35" max="39" width="4.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="6.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="41" max="45" width="4.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="6.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="47" max="50" width="4.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="4.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="6.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="11.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="12.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="57" max="16384" width="14.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" x14ac:dyDescent="0.4">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:56">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="35" t="s">
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="38" t="s">
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="37"/>
-      <c r="U1" s="35" t="s">
+      <c r="P1" s="39"/>
+      <c r="Q1" s="39"/>
+      <c r="R1" s="39"/>
+      <c r="S1" s="39"/>
+      <c r="T1" s="40"/>
+      <c r="U1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="38" t="s">
+      <c r="V1" s="39"/>
+      <c r="W1" s="39"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="40"/>
+      <c r="AA1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="36"/>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="36"/>
-      <c r="AF1" s="37"/>
-      <c r="AG1" s="45" t="s">
+      <c r="AB1" s="39"/>
+      <c r="AC1" s="39"/>
+      <c r="AD1" s="39"/>
+      <c r="AE1" s="39"/>
+      <c r="AF1" s="40"/>
+      <c r="AG1" s="48" t="s">
         <v>5</v>
       </c>
-      <c r="AH1" s="42"/>
-      <c r="AI1" s="42"/>
-      <c r="AJ1" s="42"/>
-      <c r="AK1" s="42"/>
-      <c r="AL1" s="43"/>
-      <c r="AM1" s="46" t="s">
+      <c r="AH1" s="45"/>
+      <c r="AI1" s="45"/>
+      <c r="AJ1" s="45"/>
+      <c r="AK1" s="45"/>
+      <c r="AL1" s="46"/>
+      <c r="AM1" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="AN1" s="42"/>
-      <c r="AO1" s="42"/>
-      <c r="AP1" s="42"/>
-      <c r="AQ1" s="42"/>
-      <c r="AR1" s="43"/>
-      <c r="AS1" s="41" t="s">
+      <c r="AN1" s="45"/>
+      <c r="AO1" s="45"/>
+      <c r="AP1" s="45"/>
+      <c r="AQ1" s="45"/>
+      <c r="AR1" s="46"/>
+      <c r="AS1" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="AT1" s="42"/>
-      <c r="AU1" s="42"/>
-      <c r="AV1" s="42"/>
-      <c r="AW1" s="42"/>
-      <c r="AX1" s="43"/>
-      <c r="AY1" s="39" t="s">
+      <c r="AT1" s="45"/>
+      <c r="AU1" s="45"/>
+      <c r="AV1" s="45"/>
+      <c r="AW1" s="45"/>
+      <c r="AX1" s="46"/>
+      <c r="AY1" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="AZ1" s="40"/>
-      <c r="BA1" s="40"/>
-      <c r="BB1" s="40"/>
-      <c r="BC1" s="40"/>
+      <c r="AZ1" s="43"/>
+      <c r="BA1" s="43"/>
+      <c r="BB1" s="43"/>
+      <c r="BC1" s="43"/>
     </row>
-    <row r="2" spans="1:56" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:56">
       <c r="A2" s="6" t="s">
         <v>9</v>
       </c>
@@ -1452,7 +1453,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:56">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -1468,8 +1469,8 @@
       <c r="E3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F3" s="47" t="s">
-        <v>133</v>
+      <c r="F3" s="35" t="s">
+        <v>132</v>
       </c>
       <c r="G3" s="29" t="s">
         <v>43</v>
@@ -1571,44 +1572,44 @@
       </c>
       <c r="AL3" s="17"/>
       <c r="AM3" s="18">
-        <f t="shared" ref="AM3:AQ3" si="1">ROUND(AG3/80*100,0)</f>
-        <v>121</v>
+        <f>ROUND(AG3/100*100,0)</f>
+        <v>97</v>
       </c>
       <c r="AN3" s="18">
-        <f t="shared" si="1"/>
-        <v>110</v>
+        <f>ROUND(AH3/100*100,0)</f>
+        <v>88</v>
       </c>
       <c r="AO3" s="18">
-        <f t="shared" si="1"/>
-        <v>120</v>
+        <f>ROUND(AI3/100*100,0)</f>
+        <v>96</v>
       </c>
       <c r="AP3" s="18">
-        <f t="shared" si="1"/>
-        <v>120</v>
+        <f>ROUND(AJ3/100*100,0)</f>
+        <v>96</v>
       </c>
       <c r="AQ3" s="18">
-        <f t="shared" si="1"/>
-        <v>121</v>
+        <f>ROUND(AK3/100*100,0)</f>
+        <v>97</v>
       </c>
       <c r="AR3" s="18"/>
       <c r="AS3" s="18" t="str">
-        <f t="shared" ref="AS3:AW3" si="2">IF(AM3&gt;90,"A1",IF(AM3&gt;80,"A2",IF(AM3&gt;70,"B1",IF(AM3&gt;60,"B2",IF(AM3&gt;50,"C1",IF(AM3&gt;40,"C2",IF(AM3&gt;32,"D","E")))))))</f>
+        <f t="shared" ref="AS3:AW3" si="1">IF(AM3&gt;90,"A1",IF(AM3&gt;80,"A2",IF(AM3&gt;70,"B1",IF(AM3&gt;60,"B2",IF(AM3&gt;50,"C1",IF(AM3&gt;40,"C2",IF(AM3&gt;32,"D","E")))))))</f>
         <v>A1</v>
       </c>
       <c r="AT3" s="18" t="str">
-        <f t="shared" si="2"/>
-        <v>A1</v>
+        <f t="shared" si="1"/>
+        <v>A2</v>
       </c>
       <c r="AU3" s="18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>A1</v>
       </c>
       <c r="AV3" s="18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>A1</v>
       </c>
       <c r="AW3" s="18" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>A1</v>
       </c>
       <c r="AX3" s="18"/>
@@ -1616,11 +1617,11 @@
         <v>500</v>
       </c>
       <c r="AZ3" s="19">
-        <f t="shared" ref="AZ3" si="3">SUM(AG3:AL3)</f>
+        <f t="shared" ref="AZ3" si="2">SUM(AG3:AL3)</f>
         <v>474</v>
       </c>
       <c r="BA3" s="4">
-        <f t="shared" ref="BA3" si="4">ROUND(AZ3/AY3*100,0)</f>
+        <f t="shared" ref="BA3" si="3">ROUND(AZ3/AY3*100,0)</f>
         <v>95</v>
       </c>
       <c r="BB3" s="4">
@@ -1633,7 +1634,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:56">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -1649,8 +1650,8 @@
       <c r="E4" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F4" s="47" t="s">
-        <v>134</v>
+      <c r="F4" s="35" t="s">
+        <v>133</v>
       </c>
       <c r="G4" s="29" t="s">
         <v>46</v>
@@ -1731,65 +1732,65 @@
         <v>39</v>
       </c>
       <c r="AG4" s="17">
-        <f t="shared" ref="AG4:AG35" si="5">(IF(I4="Ab",0,IF(I4="NA",0,I4))+IF(O4="Ab",0,IF(O4="NA",0,O4))+IF(U4="Ab",0,IF(U4="NA",0,U4))+IF(AA4="Ab",0,IF(AA4="NA",0,AA4)))</f>
+        <f t="shared" ref="AG4:AG35" si="4">(IF(I4="Ab",0,IF(I4="NA",0,I4))+IF(O4="Ab",0,IF(O4="NA",0,O4))+IF(U4="Ab",0,IF(U4="NA",0,U4))+IF(AA4="Ab",0,IF(AA4="NA",0,AA4)))</f>
         <v>97</v>
       </c>
       <c r="AH4" s="17">
-        <f t="shared" ref="AH4:AH35" si="6">(IF(J4="Ab",0,IF(J4="NA",0,J4))+IF(P4="Ab",0,IF(P4="NA",0,P4))+IF(V4="Ab",0,IF(V4="NA",0,V4))+IF(AB4="Ab",0,IF(AB4="NA",0,AB4)))</f>
+        <f t="shared" ref="AH4:AH35" si="5">(IF(J4="Ab",0,IF(J4="NA",0,J4))+IF(P4="Ab",0,IF(P4="NA",0,P4))+IF(V4="Ab",0,IF(V4="NA",0,V4))+IF(AB4="Ab",0,IF(AB4="NA",0,AB4)))</f>
         <v>94</v>
       </c>
       <c r="AI4" s="17">
-        <f t="shared" ref="AI4:AI35" si="7">(IF(K4="Ab",0,IF(K4="NA",0,K4))+IF(Q4="Ab",0,IF(Q4="NA",0,Q4))+IF(W4="Ab",0,IF(W4="NA",0,W4))+IF(AC4="Ab",0,IF(AC4="NA",0,AC4)))</f>
+        <f t="shared" ref="AI4:AI35" si="6">(IF(K4="Ab",0,IF(K4="NA",0,K4))+IF(Q4="Ab",0,IF(Q4="NA",0,Q4))+IF(W4="Ab",0,IF(W4="NA",0,W4))+IF(AC4="Ab",0,IF(AC4="NA",0,AC4)))</f>
         <v>100</v>
       </c>
       <c r="AJ4" s="17">
-        <f t="shared" ref="AJ4:AJ35" si="8">(IF(L4="Ab",0,IF(L4="NA",0,L4))+IF(R4="Ab",0,IF(R4="NA",0,R4))+IF(X4="Ab",0,IF(X4="NA",0,X4))+IF(AD4="Ab",0,IF(AD4="NA",0,AD4)))</f>
+        <f t="shared" ref="AJ4:AJ35" si="7">(IF(L4="Ab",0,IF(L4="NA",0,L4))+IF(R4="Ab",0,IF(R4="NA",0,R4))+IF(X4="Ab",0,IF(X4="NA",0,X4))+IF(AD4="Ab",0,IF(AD4="NA",0,AD4)))</f>
         <v>99</v>
       </c>
       <c r="AK4" s="17">
-        <f t="shared" ref="AK4:AK35" si="9">(IF(M4="Ab",0,IF(M4="NA",0,M4))+IF(S4="Ab",0,IF(S4="NA",0,S4))+IF(Y4="Ab",0,IF(Y4="NA",0,Y4))+IF(AE4="Ab",0,IF(AE4="NA",0,AE4)))</f>
+        <f t="shared" ref="AK4:AK35" si="8">(IF(M4="Ab",0,IF(M4="NA",0,M4))+IF(S4="Ab",0,IF(S4="NA",0,S4))+IF(Y4="Ab",0,IF(Y4="NA",0,Y4))+IF(AE4="Ab",0,IF(AE4="NA",0,AE4)))</f>
         <v>98</v>
       </c>
       <c r="AL4" s="17"/>
       <c r="AM4" s="18">
-        <f t="shared" ref="AM4:AM35" si="10">ROUND(AG4/80*100,0)</f>
-        <v>121</v>
+        <f t="shared" ref="AM4:AM7" si="9">ROUND(AG4/100*100,0)</f>
+        <v>97</v>
       </c>
       <c r="AN4" s="18">
-        <f t="shared" ref="AN4:AN35" si="11">ROUND(AH4/80*100,0)</f>
-        <v>118</v>
+        <f t="shared" ref="AN4:AN7" si="10">ROUND(AH4/100*100,0)</f>
+        <v>94</v>
       </c>
       <c r="AO4" s="18">
-        <f t="shared" ref="AO4:AO35" si="12">ROUND(AI4/80*100,0)</f>
-        <v>125</v>
+        <f t="shared" ref="AO4:AO7" si="11">ROUND(AI4/100*100,0)</f>
+        <v>100</v>
       </c>
       <c r="AP4" s="18">
-        <f t="shared" ref="AP4:AP35" si="13">ROUND(AJ4/80*100,0)</f>
-        <v>124</v>
+        <f t="shared" ref="AP4:AP7" si="12">ROUND(AJ4/100*100,0)</f>
+        <v>99</v>
       </c>
       <c r="AQ4" s="18">
-        <f t="shared" ref="AQ4:AQ35" si="14">ROUND(AK4/80*100,0)</f>
-        <v>123</v>
+        <f t="shared" ref="AQ4:AQ7" si="13">ROUND(AK4/100*100,0)</f>
+        <v>98</v>
       </c>
       <c r="AR4" s="18"/>
       <c r="AS4" s="18" t="str">
-        <f t="shared" ref="AS4:AS35" si="15">IF(AM4&gt;90,"A1",IF(AM4&gt;80,"A2",IF(AM4&gt;70,"B1",IF(AM4&gt;60,"B2",IF(AM4&gt;50,"C1",IF(AM4&gt;40,"C2",IF(AM4&gt;32,"D","E")))))))</f>
+        <f t="shared" ref="AS4:AS35" si="14">IF(AM4&gt;90,"A1",IF(AM4&gt;80,"A2",IF(AM4&gt;70,"B1",IF(AM4&gt;60,"B2",IF(AM4&gt;50,"C1",IF(AM4&gt;40,"C2",IF(AM4&gt;32,"D","E")))))))</f>
         <v>A1</v>
       </c>
       <c r="AT4" s="18" t="str">
-        <f t="shared" ref="AT4:AT35" si="16">IF(AN4&gt;90,"A1",IF(AN4&gt;80,"A2",IF(AN4&gt;70,"B1",IF(AN4&gt;60,"B2",IF(AN4&gt;50,"C1",IF(AN4&gt;40,"C2",IF(AN4&gt;32,"D","E")))))))</f>
+        <f t="shared" ref="AT4:AT35" si="15">IF(AN4&gt;90,"A1",IF(AN4&gt;80,"A2",IF(AN4&gt;70,"B1",IF(AN4&gt;60,"B2",IF(AN4&gt;50,"C1",IF(AN4&gt;40,"C2",IF(AN4&gt;32,"D","E")))))))</f>
         <v>A1</v>
       </c>
       <c r="AU4" s="18" t="str">
-        <f t="shared" ref="AU4:AU35" si="17">IF(AO4&gt;90,"A1",IF(AO4&gt;80,"A2",IF(AO4&gt;70,"B1",IF(AO4&gt;60,"B2",IF(AO4&gt;50,"C1",IF(AO4&gt;40,"C2",IF(AO4&gt;32,"D","E")))))))</f>
+        <f t="shared" ref="AU4:AU35" si="16">IF(AO4&gt;90,"A1",IF(AO4&gt;80,"A2",IF(AO4&gt;70,"B1",IF(AO4&gt;60,"B2",IF(AO4&gt;50,"C1",IF(AO4&gt;40,"C2",IF(AO4&gt;32,"D","E")))))))</f>
         <v>A1</v>
       </c>
       <c r="AV4" s="18" t="str">
-        <f t="shared" ref="AV4:AV35" si="18">IF(AP4&gt;90,"A1",IF(AP4&gt;80,"A2",IF(AP4&gt;70,"B1",IF(AP4&gt;60,"B2",IF(AP4&gt;50,"C1",IF(AP4&gt;40,"C2",IF(AP4&gt;32,"D","E")))))))</f>
+        <f t="shared" ref="AV4:AV35" si="17">IF(AP4&gt;90,"A1",IF(AP4&gt;80,"A2",IF(AP4&gt;70,"B1",IF(AP4&gt;60,"B2",IF(AP4&gt;50,"C1",IF(AP4&gt;40,"C2",IF(AP4&gt;32,"D","E")))))))</f>
         <v>A1</v>
       </c>
       <c r="AW4" s="18" t="str">
-        <f t="shared" ref="AW4:AW35" si="19">IF(AQ4&gt;90,"A1",IF(AQ4&gt;80,"A2",IF(AQ4&gt;70,"B1",IF(AQ4&gt;60,"B2",IF(AQ4&gt;50,"C1",IF(AQ4&gt;40,"C2",IF(AQ4&gt;32,"D","E")))))))</f>
+        <f t="shared" ref="AW4:AW35" si="18">IF(AQ4&gt;90,"A1",IF(AQ4&gt;80,"A2",IF(AQ4&gt;70,"B1",IF(AQ4&gt;60,"B2",IF(AQ4&gt;50,"C1",IF(AQ4&gt;40,"C2",IF(AQ4&gt;32,"D","E")))))))</f>
         <v>A1</v>
       </c>
       <c r="AX4" s="18"/>
@@ -1797,11 +1798,11 @@
         <v>500</v>
       </c>
       <c r="AZ4" s="19">
-        <f t="shared" ref="AZ4:AZ35" si="20">SUM(AG4:AL4)</f>
+        <f t="shared" ref="AZ4:AZ35" si="19">SUM(AG4:AL4)</f>
         <v>488</v>
       </c>
       <c r="BA4" s="4">
-        <f t="shared" ref="BA4:BA35" si="21">ROUND(AZ4/AY4*100,0)</f>
+        <f t="shared" ref="BA4:BA35" si="20">ROUND(AZ4/AY4*100,0)</f>
         <v>98</v>
       </c>
       <c r="BB4" s="4">
@@ -1814,7 +1815,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:56">
       <c r="A5" s="4">
         <v>3</v>
       </c>
@@ -1830,8 +1831,8 @@
       <c r="E5" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="47" t="s">
-        <v>135</v>
+      <c r="F5" s="35" t="s">
+        <v>134</v>
       </c>
       <c r="G5" s="29" t="s">
         <v>49</v>
@@ -1912,77 +1913,77 @@
         <v>39</v>
       </c>
       <c r="AG5" s="17">
+        <f t="shared" si="4"/>
+        <v>82</v>
+      </c>
+      <c r="AH5" s="17">
         <f t="shared" si="5"/>
-        <v>82</v>
-      </c>
-      <c r="AH5" s="17">
+        <v>77</v>
+      </c>
+      <c r="AI5" s="17">
         <f t="shared" si="6"/>
-        <v>77</v>
-      </c>
-      <c r="AI5" s="17">
+        <v>88</v>
+      </c>
+      <c r="AJ5" s="17">
         <f t="shared" si="7"/>
-        <v>88</v>
-      </c>
-      <c r="AJ5" s="17">
+        <v>90</v>
+      </c>
+      <c r="AK5" s="17">
         <f t="shared" si="8"/>
-        <v>90</v>
-      </c>
-      <c r="AK5" s="17">
-        <f t="shared" si="9"/>
         <v>88</v>
       </c>
       <c r="AL5" s="17"/>
       <c r="AM5" s="18">
+        <f t="shared" si="9"/>
+        <v>82</v>
+      </c>
+      <c r="AN5" s="18">
         <f t="shared" si="10"/>
-        <v>103</v>
-      </c>
-      <c r="AN5" s="18">
+        <v>77</v>
+      </c>
+      <c r="AO5" s="18">
         <f t="shared" si="11"/>
-        <v>96</v>
-      </c>
-      <c r="AO5" s="18">
+        <v>88</v>
+      </c>
+      <c r="AP5" s="18">
         <f t="shared" si="12"/>
-        <v>110</v>
-      </c>
-      <c r="AP5" s="18">
+        <v>90</v>
+      </c>
+      <c r="AQ5" s="18">
         <f t="shared" si="13"/>
-        <v>113</v>
-      </c>
-      <c r="AQ5" s="18">
-        <f t="shared" si="14"/>
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="AR5" s="18"/>
       <c r="AS5" s="18" t="str">
+        <f t="shared" si="14"/>
+        <v>A2</v>
+      </c>
+      <c r="AT5" s="18" t="str">
         <f t="shared" si="15"/>
-        <v>A1</v>
-      </c>
-      <c r="AT5" s="18" t="str">
+        <v>B1</v>
+      </c>
+      <c r="AU5" s="18" t="str">
         <f t="shared" si="16"/>
-        <v>A1</v>
-      </c>
-      <c r="AU5" s="18" t="str">
+        <v>A2</v>
+      </c>
+      <c r="AV5" s="18" t="str">
         <f t="shared" si="17"/>
-        <v>A1</v>
-      </c>
-      <c r="AV5" s="18" t="str">
+        <v>A2</v>
+      </c>
+      <c r="AW5" s="18" t="str">
         <f t="shared" si="18"/>
-        <v>A1</v>
-      </c>
-      <c r="AW5" s="18" t="str">
-        <f t="shared" si="19"/>
-        <v>A1</v>
+        <v>A2</v>
       </c>
       <c r="AX5" s="18"/>
       <c r="AY5" s="24">
         <v>500</v>
       </c>
       <c r="AZ5" s="19">
+        <f t="shared" si="19"/>
+        <v>425</v>
+      </c>
+      <c r="BA5" s="4">
         <f t="shared" si="20"/>
-        <v>425</v>
-      </c>
-      <c r="BA5" s="4">
-        <f t="shared" si="21"/>
         <v>85</v>
       </c>
       <c r="BB5" s="4">
@@ -1995,7 +1996,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:56">
       <c r="A6" s="4">
         <v>4</v>
       </c>
@@ -2011,8 +2012,8 @@
       <c r="E6" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F6" s="47" t="s">
-        <v>136</v>
+      <c r="F6" s="35" t="s">
+        <v>135</v>
       </c>
       <c r="G6" s="29" t="s">
         <v>52</v>
@@ -2093,65 +2094,65 @@
         <v>39</v>
       </c>
       <c r="AG6" s="17">
+        <f t="shared" si="4"/>
+        <v>93</v>
+      </c>
+      <c r="AH6" s="17">
         <f t="shared" si="5"/>
-        <v>93</v>
-      </c>
-      <c r="AH6" s="17">
+        <v>81</v>
+      </c>
+      <c r="AI6" s="17">
         <f t="shared" si="6"/>
-        <v>81</v>
-      </c>
-      <c r="AI6" s="17">
+        <v>94</v>
+      </c>
+      <c r="AJ6" s="17">
         <f t="shared" si="7"/>
-        <v>94</v>
-      </c>
-      <c r="AJ6" s="17">
+        <v>99</v>
+      </c>
+      <c r="AK6" s="17">
         <f t="shared" si="8"/>
-        <v>99</v>
-      </c>
-      <c r="AK6" s="17">
-        <f t="shared" si="9"/>
         <v>96</v>
       </c>
       <c r="AL6" s="17"/>
       <c r="AM6" s="18">
+        <f t="shared" si="9"/>
+        <v>93</v>
+      </c>
+      <c r="AN6" s="18">
         <f t="shared" si="10"/>
-        <v>116</v>
-      </c>
-      <c r="AN6" s="18">
+        <v>81</v>
+      </c>
+      <c r="AO6" s="18">
         <f t="shared" si="11"/>
-        <v>101</v>
-      </c>
-      <c r="AO6" s="18">
+        <v>94</v>
+      </c>
+      <c r="AP6" s="18">
         <f t="shared" si="12"/>
-        <v>118</v>
-      </c>
-      <c r="AP6" s="18">
+        <v>99</v>
+      </c>
+      <c r="AQ6" s="18">
         <f t="shared" si="13"/>
-        <v>124</v>
-      </c>
-      <c r="AQ6" s="18">
-        <f t="shared" si="14"/>
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="AR6" s="18"/>
       <c r="AS6" s="18" t="str">
+        <f t="shared" si="14"/>
+        <v>A1</v>
+      </c>
+      <c r="AT6" s="18" t="str">
         <f t="shared" si="15"/>
-        <v>A1</v>
-      </c>
-      <c r="AT6" s="18" t="str">
+        <v>A2</v>
+      </c>
+      <c r="AU6" s="18" t="str">
         <f t="shared" si="16"/>
         <v>A1</v>
       </c>
-      <c r="AU6" s="18" t="str">
+      <c r="AV6" s="18" t="str">
         <f t="shared" si="17"/>
         <v>A1</v>
       </c>
-      <c r="AV6" s="18" t="str">
+      <c r="AW6" s="18" t="str">
         <f t="shared" si="18"/>
-        <v>A1</v>
-      </c>
-      <c r="AW6" s="18" t="str">
-        <f t="shared" si="19"/>
         <v>A1</v>
       </c>
       <c r="AX6" s="18"/>
@@ -2159,11 +2160,11 @@
         <v>500</v>
       </c>
       <c r="AZ6" s="19">
+        <f t="shared" si="19"/>
+        <v>463</v>
+      </c>
+      <c r="BA6" s="4">
         <f t="shared" si="20"/>
-        <v>463</v>
-      </c>
-      <c r="BA6" s="4">
-        <f t="shared" si="21"/>
         <v>93</v>
       </c>
       <c r="BB6" s="4">
@@ -2176,7 +2177,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:56">
       <c r="A7" s="4">
         <v>5</v>
       </c>
@@ -2192,8 +2193,8 @@
       <c r="E7" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="47" t="s">
-        <v>137</v>
+      <c r="F7" s="35" t="s">
+        <v>136</v>
       </c>
       <c r="G7" s="29" t="s">
         <v>55</v>
@@ -2274,65 +2275,65 @@
         <v>39</v>
       </c>
       <c r="AG7" s="17">
+        <f t="shared" si="4"/>
+        <v>99</v>
+      </c>
+      <c r="AH7" s="17">
         <f t="shared" si="5"/>
+        <v>92</v>
+      </c>
+      <c r="AI7" s="17">
+        <f t="shared" si="6"/>
+        <v>97</v>
+      </c>
+      <c r="AJ7" s="17">
+        <f t="shared" si="7"/>
         <v>99</v>
       </c>
-      <c r="AH7" s="17">
-        <f t="shared" si="6"/>
-        <v>92</v>
-      </c>
-      <c r="AI7" s="17">
-        <f t="shared" si="7"/>
-        <v>97</v>
-      </c>
-      <c r="AJ7" s="17">
+      <c r="AK7" s="17">
         <f t="shared" si="8"/>
         <v>99</v>
       </c>
-      <c r="AK7" s="17">
+      <c r="AL7" s="17"/>
+      <c r="AM7" s="18">
         <f t="shared" si="9"/>
         <v>99</v>
       </c>
-      <c r="AL7" s="17"/>
-      <c r="AM7" s="18">
+      <c r="AN7" s="18">
         <f t="shared" si="10"/>
-        <v>124</v>
-      </c>
-      <c r="AN7" s="18">
+        <v>92</v>
+      </c>
+      <c r="AO7" s="18">
         <f t="shared" si="11"/>
-        <v>115</v>
-      </c>
-      <c r="AO7" s="18">
+        <v>97</v>
+      </c>
+      <c r="AP7" s="18">
         <f t="shared" si="12"/>
-        <v>121</v>
-      </c>
-      <c r="AP7" s="18">
+        <v>99</v>
+      </c>
+      <c r="AQ7" s="18">
         <f t="shared" si="13"/>
-        <v>124</v>
-      </c>
-      <c r="AQ7" s="18">
-        <f t="shared" si="14"/>
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="AR7" s="18"/>
       <c r="AS7" s="18" t="str">
+        <f t="shared" si="14"/>
+        <v>A1</v>
+      </c>
+      <c r="AT7" s="18" t="str">
         <f t="shared" si="15"/>
         <v>A1</v>
       </c>
-      <c r="AT7" s="18" t="str">
+      <c r="AU7" s="18" t="str">
         <f t="shared" si="16"/>
         <v>A1</v>
       </c>
-      <c r="AU7" s="18" t="str">
+      <c r="AV7" s="18" t="str">
         <f t="shared" si="17"/>
         <v>A1</v>
       </c>
-      <c r="AV7" s="18" t="str">
+      <c r="AW7" s="18" t="str">
         <f t="shared" si="18"/>
-        <v>A1</v>
-      </c>
-      <c r="AW7" s="18" t="str">
-        <f t="shared" si="19"/>
         <v>A1</v>
       </c>
       <c r="AX7" s="18"/>
@@ -2340,11 +2341,11 @@
         <v>500</v>
       </c>
       <c r="AZ7" s="19">
+        <f t="shared" si="19"/>
+        <v>486</v>
+      </c>
+      <c r="BA7" s="4">
         <f t="shared" si="20"/>
-        <v>486</v>
-      </c>
-      <c r="BA7" s="4">
-        <f t="shared" si="21"/>
         <v>97</v>
       </c>
       <c r="BB7" s="4">
@@ -2357,7 +2358,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:56">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -2373,8 +2374,8 @@
       <c r="E8" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F8" s="48" t="s">
-        <v>138</v>
+      <c r="F8" s="36" t="s">
+        <v>137</v>
       </c>
       <c r="G8" s="31" t="s">
         <v>58</v>
@@ -2459,73 +2460,73 @@
         <v>69</v>
       </c>
       <c r="AH8" s="20">
-        <f t="shared" ref="AH8:AK8" si="22">(IF(J8="ML",0,IF(J8="NA",0,J8))+IF(P8="ML",0,IF(P8="NA",0,P8))+IF(V8="ML",0,IF(V8="NA",0,V8))+IF(AB8="ML",0,IF(AB8="NA",0,AB8)))</f>
+        <f t="shared" ref="AH8:AK8" si="21">(IF(J8="ML",0,IF(J8="NA",0,J8))+IF(P8="ML",0,IF(P8="NA",0,P8))+IF(V8="ML",0,IF(V8="NA",0,V8))+IF(AB8="ML",0,IF(AB8="NA",0,AB8)))</f>
         <v>65</v>
       </c>
       <c r="AI8" s="20">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>69</v>
       </c>
       <c r="AJ8" s="20">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>69</v>
       </c>
       <c r="AK8" s="20">
-        <f t="shared" si="22"/>
+        <f t="shared" si="21"/>
         <v>70</v>
       </c>
       <c r="AL8" s="20"/>
       <c r="AM8" s="21">
-        <f t="shared" si="10"/>
-        <v>86</v>
+        <f>ROUND(AG8/70*100,0)</f>
+        <v>99</v>
       </c>
       <c r="AN8" s="21">
-        <f t="shared" si="11"/>
-        <v>81</v>
+        <f>ROUND(AH8/70*100,0)</f>
+        <v>93</v>
       </c>
       <c r="AO8" s="21">
-        <f t="shared" si="12"/>
-        <v>86</v>
+        <f>ROUND(AI8/70*100,0)</f>
+        <v>99</v>
       </c>
       <c r="AP8" s="21">
-        <f t="shared" si="13"/>
-        <v>86</v>
+        <f>ROUND(AJ8/70*100,0)</f>
+        <v>99</v>
       </c>
       <c r="AQ8" s="21">
-        <f t="shared" si="14"/>
-        <v>88</v>
+        <f>ROUND(AK8/70*100,0)</f>
+        <v>100</v>
       </c>
       <c r="AR8" s="21"/>
       <c r="AS8" s="21" t="str">
+        <f t="shared" si="14"/>
+        <v>A1</v>
+      </c>
+      <c r="AT8" s="21" t="str">
         <f t="shared" si="15"/>
-        <v>A2</v>
-      </c>
-      <c r="AT8" s="21" t="str">
+        <v>A1</v>
+      </c>
+      <c r="AU8" s="21" t="str">
         <f t="shared" si="16"/>
-        <v>A2</v>
-      </c>
-      <c r="AU8" s="21" t="str">
+        <v>A1</v>
+      </c>
+      <c r="AV8" s="21" t="str">
         <f t="shared" si="17"/>
-        <v>A2</v>
-      </c>
-      <c r="AV8" s="21" t="str">
+        <v>A1</v>
+      </c>
+      <c r="AW8" s="21" t="str">
         <f t="shared" si="18"/>
-        <v>A2</v>
-      </c>
-      <c r="AW8" s="21" t="str">
-        <f t="shared" si="19"/>
-        <v>A2</v>
+        <v>A1</v>
       </c>
       <c r="AX8" s="21"/>
       <c r="AY8" s="33">
         <v>350</v>
       </c>
       <c r="AZ8" s="22">
+        <f t="shared" si="19"/>
+        <v>342</v>
+      </c>
+      <c r="BA8" s="5">
         <f t="shared" si="20"/>
-        <v>342</v>
-      </c>
-      <c r="BA8" s="5">
-        <f t="shared" si="21"/>
         <v>98</v>
       </c>
       <c r="BB8" s="2">
@@ -2538,7 +2539,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:56">
       <c r="A9" s="4">
         <v>7</v>
       </c>
@@ -2554,8 +2555,8 @@
       <c r="E9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="47" t="s">
-        <v>139</v>
+      <c r="F9" s="35" t="s">
+        <v>138</v>
       </c>
       <c r="G9" s="29" t="s">
         <v>31</v>
@@ -2636,65 +2637,65 @@
         <v>39</v>
       </c>
       <c r="AG9" s="17">
+        <f t="shared" si="4"/>
+        <v>89</v>
+      </c>
+      <c r="AH9" s="17">
         <f t="shared" si="5"/>
-        <v>89</v>
-      </c>
-      <c r="AH9" s="17">
+        <v>86</v>
+      </c>
+      <c r="AI9" s="17">
         <f t="shared" si="6"/>
-        <v>86</v>
-      </c>
-      <c r="AI9" s="17">
+        <v>95</v>
+      </c>
+      <c r="AJ9" s="17">
         <f t="shared" si="7"/>
-        <v>95</v>
-      </c>
-      <c r="AJ9" s="17">
+        <v>94</v>
+      </c>
+      <c r="AK9" s="17">
         <f t="shared" si="8"/>
-        <v>94</v>
-      </c>
-      <c r="AK9" s="17">
-        <f t="shared" si="9"/>
         <v>95</v>
       </c>
       <c r="AL9" s="17"/>
       <c r="AM9" s="18">
-        <f t="shared" si="10"/>
-        <v>111</v>
+        <f t="shared" ref="AM9:AM11" si="22">ROUND(AG9/100*100,0)</f>
+        <v>89</v>
       </c>
       <c r="AN9" s="18">
-        <f t="shared" si="11"/>
-        <v>108</v>
+        <f t="shared" ref="AN9:AN11" si="23">ROUND(AH9/100*100,0)</f>
+        <v>86</v>
       </c>
       <c r="AO9" s="18">
-        <f t="shared" si="12"/>
-        <v>119</v>
+        <f t="shared" ref="AO9:AO11" si="24">ROUND(AI9/100*100,0)</f>
+        <v>95</v>
       </c>
       <c r="AP9" s="18">
-        <f t="shared" si="13"/>
-        <v>118</v>
+        <f t="shared" ref="AP9:AP11" si="25">ROUND(AJ9/100*100,0)</f>
+        <v>94</v>
       </c>
       <c r="AQ9" s="18">
-        <f t="shared" si="14"/>
-        <v>119</v>
+        <f t="shared" ref="AQ9:AQ11" si="26">ROUND(AK9/100*100,0)</f>
+        <v>95</v>
       </c>
       <c r="AR9" s="18"/>
       <c r="AS9" s="18" t="str">
+        <f t="shared" si="14"/>
+        <v>A2</v>
+      </c>
+      <c r="AT9" s="18" t="str">
         <f t="shared" si="15"/>
-        <v>A1</v>
-      </c>
-      <c r="AT9" s="18" t="str">
+        <v>A2</v>
+      </c>
+      <c r="AU9" s="18" t="str">
         <f t="shared" si="16"/>
         <v>A1</v>
       </c>
-      <c r="AU9" s="18" t="str">
+      <c r="AV9" s="18" t="str">
         <f t="shared" si="17"/>
         <v>A1</v>
       </c>
-      <c r="AV9" s="18" t="str">
+      <c r="AW9" s="18" t="str">
         <f t="shared" si="18"/>
-        <v>A1</v>
-      </c>
-      <c r="AW9" s="18" t="str">
-        <f t="shared" si="19"/>
         <v>A1</v>
       </c>
       <c r="AX9" s="18"/>
@@ -2702,11 +2703,11 @@
         <v>500</v>
       </c>
       <c r="AZ9" s="19">
+        <f t="shared" si="19"/>
+        <v>459</v>
+      </c>
+      <c r="BA9" s="4">
         <f t="shared" si="20"/>
-        <v>459</v>
-      </c>
-      <c r="BA9" s="4">
-        <f t="shared" si="21"/>
         <v>92</v>
       </c>
       <c r="BB9" s="4">
@@ -2719,7 +2720,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:56">
       <c r="A10" s="4">
         <v>8</v>
       </c>
@@ -2735,8 +2736,8 @@
       <c r="E10" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="47" t="s">
-        <v>140</v>
+      <c r="F10" s="35" t="s">
+        <v>139</v>
       </c>
       <c r="G10" s="29" t="s">
         <v>64</v>
@@ -2817,65 +2818,65 @@
         <v>39</v>
       </c>
       <c r="AG10" s="17">
+        <f t="shared" si="4"/>
+        <v>95</v>
+      </c>
+      <c r="AH10" s="17">
         <f t="shared" si="5"/>
-        <v>95</v>
-      </c>
-      <c r="AH10" s="17">
+        <v>82</v>
+      </c>
+      <c r="AI10" s="17">
         <f t="shared" si="6"/>
-        <v>82</v>
-      </c>
-      <c r="AI10" s="17">
+        <v>85</v>
+      </c>
+      <c r="AJ10" s="17">
         <f t="shared" si="7"/>
-        <v>85</v>
-      </c>
-      <c r="AJ10" s="17">
+        <v>97</v>
+      </c>
+      <c r="AK10" s="17">
         <f t="shared" si="8"/>
-        <v>97</v>
-      </c>
-      <c r="AK10" s="17">
-        <f t="shared" si="9"/>
         <v>94</v>
       </c>
       <c r="AL10" s="17"/>
       <c r="AM10" s="18">
-        <f t="shared" si="10"/>
-        <v>119</v>
+        <f t="shared" si="22"/>
+        <v>95</v>
       </c>
       <c r="AN10" s="18">
-        <f t="shared" si="11"/>
-        <v>103</v>
+        <f t="shared" si="23"/>
+        <v>82</v>
       </c>
       <c r="AO10" s="18">
-        <f t="shared" si="12"/>
-        <v>106</v>
+        <f t="shared" si="24"/>
+        <v>85</v>
       </c>
       <c r="AP10" s="18">
-        <f t="shared" si="13"/>
-        <v>121</v>
+        <f t="shared" si="25"/>
+        <v>97</v>
       </c>
       <c r="AQ10" s="18">
-        <f t="shared" si="14"/>
-        <v>118</v>
+        <f t="shared" si="26"/>
+        <v>94</v>
       </c>
       <c r="AR10" s="18"/>
       <c r="AS10" s="18" t="str">
+        <f t="shared" si="14"/>
+        <v>A1</v>
+      </c>
+      <c r="AT10" s="18" t="str">
         <f t="shared" si="15"/>
-        <v>A1</v>
-      </c>
-      <c r="AT10" s="18" t="str">
+        <v>A2</v>
+      </c>
+      <c r="AU10" s="18" t="str">
         <f t="shared" si="16"/>
-        <v>A1</v>
-      </c>
-      <c r="AU10" s="18" t="str">
+        <v>A2</v>
+      </c>
+      <c r="AV10" s="18" t="str">
         <f t="shared" si="17"/>
         <v>A1</v>
       </c>
-      <c r="AV10" s="18" t="str">
+      <c r="AW10" s="18" t="str">
         <f t="shared" si="18"/>
-        <v>A1</v>
-      </c>
-      <c r="AW10" s="18" t="str">
-        <f t="shared" si="19"/>
         <v>A1</v>
       </c>
       <c r="AX10" s="18"/>
@@ -2883,11 +2884,11 @@
         <v>500</v>
       </c>
       <c r="AZ10" s="19">
+        <f t="shared" si="19"/>
+        <v>453</v>
+      </c>
+      <c r="BA10" s="4">
         <f t="shared" si="20"/>
-        <v>453</v>
-      </c>
-      <c r="BA10" s="4">
-        <f t="shared" si="21"/>
         <v>91</v>
       </c>
       <c r="BB10" s="4">
@@ -2900,7 +2901,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="11" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:56">
       <c r="A11" s="4">
         <v>9</v>
       </c>
@@ -2916,8 +2917,8 @@
       <c r="E11" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F11" s="47" t="s">
-        <v>141</v>
+      <c r="F11" s="35" t="s">
+        <v>140</v>
       </c>
       <c r="G11" s="29" t="s">
         <v>34</v>
@@ -2998,77 +2999,77 @@
         <v>39</v>
       </c>
       <c r="AG11" s="17">
+        <f t="shared" si="4"/>
+        <v>76</v>
+      </c>
+      <c r="AH11" s="17">
         <f t="shared" si="5"/>
-        <v>76</v>
-      </c>
-      <c r="AH11" s="17">
+        <v>67</v>
+      </c>
+      <c r="AI11" s="17">
         <f t="shared" si="6"/>
-        <v>67</v>
-      </c>
-      <c r="AI11" s="17">
+        <v>85</v>
+      </c>
+      <c r="AJ11" s="17">
         <f t="shared" si="7"/>
-        <v>85</v>
-      </c>
-      <c r="AJ11" s="17">
+        <v>78</v>
+      </c>
+      <c r="AK11" s="17">
         <f t="shared" si="8"/>
         <v>78</v>
       </c>
-      <c r="AK11" s="17">
-        <f t="shared" si="9"/>
-        <v>78</v>
-      </c>
       <c r="AL11" s="17"/>
       <c r="AM11" s="18">
-        <f t="shared" si="10"/>
-        <v>95</v>
+        <f t="shared" si="22"/>
+        <v>76</v>
       </c>
       <c r="AN11" s="18">
-        <f t="shared" si="11"/>
-        <v>84</v>
+        <f t="shared" si="23"/>
+        <v>67</v>
       </c>
       <c r="AO11" s="18">
-        <f t="shared" si="12"/>
-        <v>106</v>
+        <f t="shared" si="24"/>
+        <v>85</v>
       </c>
       <c r="AP11" s="18">
-        <f t="shared" si="13"/>
-        <v>98</v>
+        <f t="shared" si="25"/>
+        <v>78</v>
       </c>
       <c r="AQ11" s="18">
-        <f t="shared" si="14"/>
-        <v>98</v>
+        <f t="shared" si="26"/>
+        <v>78</v>
       </c>
       <c r="AR11" s="18"/>
       <c r="AS11" s="18" t="str">
+        <f t="shared" si="14"/>
+        <v>B1</v>
+      </c>
+      <c r="AT11" s="18" t="str">
         <f t="shared" si="15"/>
-        <v>A1</v>
-      </c>
-      <c r="AT11" s="18" t="str">
+        <v>B2</v>
+      </c>
+      <c r="AU11" s="18" t="str">
         <f t="shared" si="16"/>
         <v>A2</v>
       </c>
-      <c r="AU11" s="18" t="str">
+      <c r="AV11" s="18" t="str">
         <f t="shared" si="17"/>
-        <v>A1</v>
-      </c>
-      <c r="AV11" s="18" t="str">
+        <v>B1</v>
+      </c>
+      <c r="AW11" s="18" t="str">
         <f t="shared" si="18"/>
-        <v>A1</v>
-      </c>
-      <c r="AW11" s="18" t="str">
-        <f t="shared" si="19"/>
-        <v>A1</v>
+        <v>B1</v>
       </c>
       <c r="AX11" s="18"/>
       <c r="AY11" s="24">
         <v>500</v>
       </c>
       <c r="AZ11" s="19">
+        <f t="shared" si="19"/>
+        <v>384</v>
+      </c>
+      <c r="BA11" s="4">
         <f t="shared" si="20"/>
-        <v>384</v>
-      </c>
-      <c r="BA11" s="4">
-        <f t="shared" si="21"/>
         <v>77</v>
       </c>
       <c r="BB11" s="4">
@@ -3081,7 +3082,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="12" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:56">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -3097,8 +3098,8 @@
       <c r="E12" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="48" t="s">
-        <v>142</v>
+      <c r="F12" s="36" t="s">
+        <v>141</v>
       </c>
       <c r="G12" s="28"/>
       <c r="H12" s="31" t="s">
@@ -3177,65 +3178,65 @@
         <v>39</v>
       </c>
       <c r="AG12" s="20">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+      <c r="AH12" s="20">
         <f t="shared" si="5"/>
-        <v>48</v>
-      </c>
-      <c r="AH12" s="20">
+        <v>37</v>
+      </c>
+      <c r="AI12" s="20">
         <f t="shared" si="6"/>
-        <v>37</v>
-      </c>
-      <c r="AI12" s="20">
+        <v>44</v>
+      </c>
+      <c r="AJ12" s="20">
         <f t="shared" si="7"/>
-        <v>44</v>
-      </c>
-      <c r="AJ12" s="20">
+        <v>50</v>
+      </c>
+      <c r="AK12" s="20">
         <f t="shared" si="8"/>
-        <v>50</v>
-      </c>
-      <c r="AK12" s="20">
-        <f t="shared" si="9"/>
         <v>48</v>
       </c>
       <c r="AL12" s="20"/>
       <c r="AM12" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="AM12:AM35" si="27">ROUND(AG12/80*100,0)</f>
         <v>60</v>
       </c>
       <c r="AN12" s="21">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="AN12:AN35" si="28">ROUND(AH12/80*100,0)</f>
         <v>46</v>
       </c>
       <c r="AO12" s="21">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="AO12:AO35" si="29">ROUND(AI12/80*100,0)</f>
         <v>55</v>
       </c>
       <c r="AP12" s="21">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="AP12:AP35" si="30">ROUND(AJ12/80*100,0)</f>
         <v>63</v>
       </c>
       <c r="AQ12" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="AQ12:AQ35" si="31">ROUND(AK12/80*100,0)</f>
         <v>60</v>
       </c>
       <c r="AR12" s="21"/>
       <c r="AS12" s="21" t="str">
+        <f t="shared" si="14"/>
+        <v>C1</v>
+      </c>
+      <c r="AT12" s="21" t="str">
         <f t="shared" si="15"/>
+        <v>C2</v>
+      </c>
+      <c r="AU12" s="21" t="str">
+        <f t="shared" si="16"/>
         <v>C1</v>
       </c>
-      <c r="AT12" s="21" t="str">
-        <f t="shared" si="16"/>
-        <v>C2</v>
-      </c>
-      <c r="AU12" s="21" t="str">
+      <c r="AV12" s="21" t="str">
         <f t="shared" si="17"/>
-        <v>C1</v>
-      </c>
-      <c r="AV12" s="21" t="str">
+        <v>B2</v>
+      </c>
+      <c r="AW12" s="21" t="str">
         <f t="shared" si="18"/>
-        <v>B2</v>
-      </c>
-      <c r="AW12" s="21" t="str">
-        <f t="shared" si="19"/>
         <v>C1</v>
       </c>
       <c r="AX12" s="21"/>
@@ -3243,11 +3244,11 @@
         <v>400</v>
       </c>
       <c r="AZ12" s="22">
+        <f t="shared" si="19"/>
+        <v>227</v>
+      </c>
+      <c r="BA12" s="5">
         <f t="shared" si="20"/>
-        <v>227</v>
-      </c>
-      <c r="BA12" s="5">
-        <f t="shared" si="21"/>
         <v>57</v>
       </c>
       <c r="BB12" s="2">
@@ -3260,7 +3261,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:56">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -3276,8 +3277,8 @@
       <c r="E13" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F13" s="47" t="s">
-        <v>143</v>
+      <c r="F13" s="35" t="s">
+        <v>142</v>
       </c>
       <c r="G13" s="29" t="s">
         <v>70</v>
@@ -3358,77 +3359,77 @@
         <v>40</v>
       </c>
       <c r="AG13" s="17">
+        <f t="shared" si="4"/>
+        <v>56</v>
+      </c>
+      <c r="AH13" s="17">
         <f t="shared" si="5"/>
-        <v>56</v>
-      </c>
-      <c r="AH13" s="17">
+        <v>52</v>
+      </c>
+      <c r="AI13" s="17">
         <f t="shared" si="6"/>
-        <v>52</v>
-      </c>
-      <c r="AI13" s="17">
+        <v>65</v>
+      </c>
+      <c r="AJ13" s="17">
         <f t="shared" si="7"/>
-        <v>65</v>
-      </c>
-      <c r="AJ13" s="17">
+        <v>71</v>
+      </c>
+      <c r="AK13" s="17">
         <f t="shared" si="8"/>
-        <v>71</v>
-      </c>
-      <c r="AK13" s="17">
-        <f t="shared" si="9"/>
         <v>60</v>
       </c>
       <c r="AL13" s="17"/>
       <c r="AM13" s="18">
-        <f t="shared" si="10"/>
-        <v>70</v>
+        <f t="shared" ref="AM13:AM14" si="32">ROUND(AG13/100*100,0)</f>
+        <v>56</v>
       </c>
       <c r="AN13" s="18">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="AN13:AN14" si="33">ROUND(AH13/100*100,0)</f>
+        <v>52</v>
+      </c>
+      <c r="AO13" s="18">
+        <f t="shared" ref="AO13:AO14" si="34">ROUND(AI13/100*100,0)</f>
         <v>65</v>
       </c>
-      <c r="AO13" s="18">
-        <f t="shared" si="12"/>
-        <v>81</v>
-      </c>
       <c r="AP13" s="18">
-        <f t="shared" si="13"/>
-        <v>89</v>
+        <f t="shared" ref="AP13:AP14" si="35">ROUND(AJ13/100*100,0)</f>
+        <v>71</v>
       </c>
       <c r="AQ13" s="18">
-        <f t="shared" si="14"/>
-        <v>75</v>
+        <f t="shared" ref="AQ13:AQ14" si="36">ROUND(AK13/100*100,0)</f>
+        <v>60</v>
       </c>
       <c r="AR13" s="18"/>
       <c r="AS13" s="18" t="str">
+        <f t="shared" si="14"/>
+        <v>C1</v>
+      </c>
+      <c r="AT13" s="18" t="str">
         <f t="shared" si="15"/>
-        <v>B2</v>
-      </c>
-      <c r="AT13" s="18" t="str">
+        <v>C1</v>
+      </c>
+      <c r="AU13" s="18" t="str">
         <f t="shared" si="16"/>
         <v>B2</v>
       </c>
-      <c r="AU13" s="18" t="str">
+      <c r="AV13" s="18" t="str">
         <f t="shared" si="17"/>
-        <v>A2</v>
-      </c>
-      <c r="AV13" s="18" t="str">
+        <v>B1</v>
+      </c>
+      <c r="AW13" s="18" t="str">
         <f t="shared" si="18"/>
-        <v>A2</v>
-      </c>
-      <c r="AW13" s="18" t="str">
-        <f t="shared" si="19"/>
-        <v>B1</v>
+        <v>C1</v>
       </c>
       <c r="AX13" s="18"/>
       <c r="AY13" s="24">
         <v>500</v>
       </c>
       <c r="AZ13" s="19">
+        <f t="shared" si="19"/>
+        <v>304</v>
+      </c>
+      <c r="BA13" s="4">
         <f t="shared" si="20"/>
-        <v>304</v>
-      </c>
-      <c r="BA13" s="4">
-        <f t="shared" si="21"/>
         <v>61</v>
       </c>
       <c r="BB13" s="4">
@@ -3441,7 +3442,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:56">
       <c r="A14" s="4">
         <v>12</v>
       </c>
@@ -3457,8 +3458,8 @@
       <c r="E14" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F14" s="47" t="s">
-        <v>144</v>
+      <c r="F14" s="35" t="s">
+        <v>143</v>
       </c>
       <c r="G14" s="29" t="s">
         <v>73</v>
@@ -3539,65 +3540,65 @@
         <v>39</v>
       </c>
       <c r="AG14" s="17">
+        <f t="shared" si="4"/>
+        <v>95</v>
+      </c>
+      <c r="AH14" s="17">
         <f t="shared" si="5"/>
-        <v>95</v>
-      </c>
-      <c r="AH14" s="17">
+        <v>89</v>
+      </c>
+      <c r="AI14" s="17">
         <f t="shared" si="6"/>
-        <v>89</v>
-      </c>
-      <c r="AI14" s="17">
+        <v>97</v>
+      </c>
+      <c r="AJ14" s="17">
         <f t="shared" si="7"/>
-        <v>97</v>
-      </c>
-      <c r="AJ14" s="17">
+        <v>98</v>
+      </c>
+      <c r="AK14" s="17">
         <f t="shared" si="8"/>
-        <v>98</v>
-      </c>
-      <c r="AK14" s="17">
-        <f t="shared" si="9"/>
         <v>97</v>
       </c>
       <c r="AL14" s="17"/>
       <c r="AM14" s="18">
-        <f t="shared" si="10"/>
-        <v>119</v>
+        <f t="shared" si="32"/>
+        <v>95</v>
       </c>
       <c r="AN14" s="18">
-        <f t="shared" si="11"/>
-        <v>111</v>
+        <f t="shared" si="33"/>
+        <v>89</v>
       </c>
       <c r="AO14" s="18">
-        <f t="shared" si="12"/>
-        <v>121</v>
+        <f t="shared" si="34"/>
+        <v>97</v>
       </c>
       <c r="AP14" s="18">
-        <f t="shared" si="13"/>
-        <v>123</v>
+        <f t="shared" si="35"/>
+        <v>98</v>
       </c>
       <c r="AQ14" s="18">
-        <f t="shared" si="14"/>
-        <v>121</v>
+        <f t="shared" si="36"/>
+        <v>97</v>
       </c>
       <c r="AR14" s="18"/>
       <c r="AS14" s="18" t="str">
+        <f t="shared" si="14"/>
+        <v>A1</v>
+      </c>
+      <c r="AT14" s="18" t="str">
         <f t="shared" si="15"/>
-        <v>A1</v>
-      </c>
-      <c r="AT14" s="18" t="str">
+        <v>A2</v>
+      </c>
+      <c r="AU14" s="18" t="str">
         <f t="shared" si="16"/>
         <v>A1</v>
       </c>
-      <c r="AU14" s="18" t="str">
+      <c r="AV14" s="18" t="str">
         <f t="shared" si="17"/>
         <v>A1</v>
       </c>
-      <c r="AV14" s="18" t="str">
+      <c r="AW14" s="18" t="str">
         <f t="shared" si="18"/>
-        <v>A1</v>
-      </c>
-      <c r="AW14" s="18" t="str">
-        <f t="shared" si="19"/>
         <v>A1</v>
       </c>
       <c r="AX14" s="18"/>
@@ -3605,11 +3606,11 @@
         <v>500</v>
       </c>
       <c r="AZ14" s="19">
+        <f t="shared" si="19"/>
+        <v>476</v>
+      </c>
+      <c r="BA14" s="4">
         <f t="shared" si="20"/>
-        <v>476</v>
-      </c>
-      <c r="BA14" s="4">
-        <f t="shared" si="21"/>
         <v>95</v>
       </c>
       <c r="BB14" s="4">
@@ -3622,7 +3623,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:56">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -3638,8 +3639,8 @@
       <c r="E15" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F15" s="48" t="s">
-        <v>145</v>
+      <c r="F15" s="36" t="s">
+        <v>144</v>
       </c>
       <c r="G15" s="31" t="s">
         <v>76</v>
@@ -3720,65 +3721,65 @@
         <v>40</v>
       </c>
       <c r="AG15" s="20">
+        <f t="shared" si="4"/>
+        <v>67</v>
+      </c>
+      <c r="AH15" s="20">
         <f t="shared" si="5"/>
-        <v>67</v>
-      </c>
-      <c r="AH15" s="20">
+        <v>57</v>
+      </c>
+      <c r="AI15" s="20">
         <f t="shared" si="6"/>
-        <v>57</v>
-      </c>
-      <c r="AI15" s="20">
+        <v>65</v>
+      </c>
+      <c r="AJ15" s="20">
         <f t="shared" si="7"/>
-        <v>65</v>
-      </c>
-      <c r="AJ15" s="20">
+        <v>73</v>
+      </c>
+      <c r="AK15" s="20">
         <f t="shared" si="8"/>
-        <v>73</v>
-      </c>
-      <c r="AK15" s="20">
-        <f t="shared" si="9"/>
         <v>76</v>
       </c>
       <c r="AL15" s="20"/>
       <c r="AM15" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="27"/>
         <v>84</v>
       </c>
       <c r="AN15" s="21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>71</v>
       </c>
       <c r="AO15" s="21">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>81</v>
       </c>
       <c r="AP15" s="21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="30"/>
         <v>91</v>
       </c>
       <c r="AQ15" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>95</v>
       </c>
       <c r="AR15" s="21"/>
       <c r="AS15" s="21" t="str">
+        <f t="shared" si="14"/>
+        <v>A2</v>
+      </c>
+      <c r="AT15" s="21" t="str">
         <f t="shared" si="15"/>
+        <v>B1</v>
+      </c>
+      <c r="AU15" s="21" t="str">
+        <f t="shared" si="16"/>
         <v>A2</v>
       </c>
-      <c r="AT15" s="21" t="str">
-        <f t="shared" si="16"/>
-        <v>B1</v>
-      </c>
-      <c r="AU15" s="21" t="str">
+      <c r="AV15" s="21" t="str">
         <f t="shared" si="17"/>
-        <v>A2</v>
-      </c>
-      <c r="AV15" s="21" t="str">
+        <v>A1</v>
+      </c>
+      <c r="AW15" s="21" t="str">
         <f t="shared" si="18"/>
-        <v>A1</v>
-      </c>
-      <c r="AW15" s="21" t="str">
-        <f t="shared" si="19"/>
         <v>A1</v>
       </c>
       <c r="AX15" s="21"/>
@@ -3786,11 +3787,11 @@
         <v>400</v>
       </c>
       <c r="AZ15" s="22">
+        <f t="shared" si="19"/>
+        <v>338</v>
+      </c>
+      <c r="BA15" s="5">
         <f t="shared" si="20"/>
-        <v>338</v>
-      </c>
-      <c r="BA15" s="5">
-        <f t="shared" si="21"/>
         <v>85</v>
       </c>
       <c r="BB15" s="2">
@@ -3800,10 +3801,10 @@
         <v>170</v>
       </c>
       <c r="BD15" s="34">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:56">
       <c r="A16" s="4">
         <v>14</v>
       </c>
@@ -3819,8 +3820,8 @@
       <c r="E16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F16" s="47" t="s">
-        <v>146</v>
+      <c r="F16" s="35" t="s">
+        <v>145</v>
       </c>
       <c r="G16" s="29" t="s">
         <v>32</v>
@@ -3901,65 +3902,65 @@
         <v>39</v>
       </c>
       <c r="AG16" s="17">
+        <f t="shared" si="4"/>
+        <v>95</v>
+      </c>
+      <c r="AH16" s="17">
         <f t="shared" si="5"/>
+        <v>85</v>
+      </c>
+      <c r="AI16" s="17">
+        <f t="shared" si="6"/>
+        <v>88</v>
+      </c>
+      <c r="AJ16" s="17">
+        <f t="shared" si="7"/>
         <v>95</v>
       </c>
-      <c r="AH16" s="17">
-        <f t="shared" si="6"/>
-        <v>85</v>
-      </c>
-      <c r="AI16" s="17">
-        <f t="shared" si="7"/>
-        <v>88</v>
-      </c>
-      <c r="AJ16" s="17">
+      <c r="AK16" s="17">
         <f t="shared" si="8"/>
-        <v>95</v>
-      </c>
-      <c r="AK16" s="17">
-        <f t="shared" si="9"/>
         <v>96</v>
       </c>
       <c r="AL16" s="17"/>
       <c r="AM16" s="18">
-        <f t="shared" si="10"/>
-        <v>119</v>
+        <f t="shared" ref="AM16:AM19" si="37">ROUND(AG16/100*100,0)</f>
+        <v>95</v>
       </c>
       <c r="AN16" s="18">
-        <f t="shared" si="11"/>
-        <v>106</v>
+        <f t="shared" ref="AN16:AN19" si="38">ROUND(AH16/100*100,0)</f>
+        <v>85</v>
       </c>
       <c r="AO16" s="18">
-        <f t="shared" si="12"/>
-        <v>110</v>
+        <f t="shared" ref="AO16:AO19" si="39">ROUND(AI16/100*100,0)</f>
+        <v>88</v>
       </c>
       <c r="AP16" s="18">
-        <f t="shared" si="13"/>
-        <v>119</v>
+        <f t="shared" ref="AP16:AP19" si="40">ROUND(AJ16/100*100,0)</f>
+        <v>95</v>
       </c>
       <c r="AQ16" s="18">
-        <f t="shared" si="14"/>
-        <v>120</v>
+        <f t="shared" ref="AQ16:AQ19" si="41">ROUND(AK16/100*100,0)</f>
+        <v>96</v>
       </c>
       <c r="AR16" s="18"/>
       <c r="AS16" s="18" t="str">
+        <f t="shared" si="14"/>
+        <v>A1</v>
+      </c>
+      <c r="AT16" s="18" t="str">
         <f t="shared" si="15"/>
-        <v>A1</v>
-      </c>
-      <c r="AT16" s="18" t="str">
+        <v>A2</v>
+      </c>
+      <c r="AU16" s="18" t="str">
         <f t="shared" si="16"/>
-        <v>A1</v>
-      </c>
-      <c r="AU16" s="18" t="str">
+        <v>A2</v>
+      </c>
+      <c r="AV16" s="18" t="str">
         <f t="shared" si="17"/>
         <v>A1</v>
       </c>
-      <c r="AV16" s="18" t="str">
+      <c r="AW16" s="18" t="str">
         <f t="shared" si="18"/>
-        <v>A1</v>
-      </c>
-      <c r="AW16" s="18" t="str">
-        <f t="shared" si="19"/>
         <v>A1</v>
       </c>
       <c r="AX16" s="18"/>
@@ -3967,11 +3968,11 @@
         <v>500</v>
       </c>
       <c r="AZ16" s="19">
+        <f t="shared" si="19"/>
+        <v>459</v>
+      </c>
+      <c r="BA16" s="4">
         <f t="shared" si="20"/>
-        <v>459</v>
-      </c>
-      <c r="BA16" s="4">
-        <f t="shared" si="21"/>
         <v>92</v>
       </c>
       <c r="BB16" s="4">
@@ -3984,7 +3985,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="17" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:56">
       <c r="A17" s="4">
         <v>15</v>
       </c>
@@ -4000,8 +4001,8 @@
       <c r="E17" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F17" s="47" t="s">
-        <v>147</v>
+      <c r="F17" s="35" t="s">
+        <v>146</v>
       </c>
       <c r="G17" s="29" t="s">
         <v>80</v>
@@ -4082,65 +4083,65 @@
         <v>39</v>
       </c>
       <c r="AG17" s="17">
+        <f t="shared" si="4"/>
+        <v>84</v>
+      </c>
+      <c r="AH17" s="17">
         <f t="shared" si="5"/>
-        <v>84</v>
-      </c>
-      <c r="AH17" s="17">
+        <v>68</v>
+      </c>
+      <c r="AI17" s="17">
         <f t="shared" si="6"/>
-        <v>68</v>
-      </c>
-      <c r="AI17" s="17">
+        <v>86</v>
+      </c>
+      <c r="AJ17" s="17">
         <f t="shared" si="7"/>
-        <v>86</v>
-      </c>
-      <c r="AJ17" s="17">
+        <v>88</v>
+      </c>
+      <c r="AK17" s="17">
         <f t="shared" si="8"/>
-        <v>88</v>
-      </c>
-      <c r="AK17" s="17">
-        <f t="shared" si="9"/>
         <v>96</v>
       </c>
       <c r="AL17" s="17"/>
       <c r="AM17" s="18">
-        <f t="shared" si="10"/>
-        <v>105</v>
+        <f t="shared" si="37"/>
+        <v>84</v>
       </c>
       <c r="AN17" s="18">
-        <f t="shared" si="11"/>
-        <v>85</v>
+        <f t="shared" si="38"/>
+        <v>68</v>
       </c>
       <c r="AO17" s="18">
-        <f t="shared" si="12"/>
-        <v>108</v>
+        <f t="shared" si="39"/>
+        <v>86</v>
       </c>
       <c r="AP17" s="18">
-        <f t="shared" si="13"/>
-        <v>110</v>
+        <f t="shared" si="40"/>
+        <v>88</v>
       </c>
       <c r="AQ17" s="18">
-        <f t="shared" si="14"/>
-        <v>120</v>
+        <f t="shared" si="41"/>
+        <v>96</v>
       </c>
       <c r="AR17" s="18"/>
       <c r="AS17" s="18" t="str">
+        <f t="shared" si="14"/>
+        <v>A2</v>
+      </c>
+      <c r="AT17" s="18" t="str">
         <f t="shared" si="15"/>
-        <v>A1</v>
-      </c>
-      <c r="AT17" s="18" t="str">
+        <v>B2</v>
+      </c>
+      <c r="AU17" s="18" t="str">
         <f t="shared" si="16"/>
         <v>A2</v>
       </c>
-      <c r="AU17" s="18" t="str">
+      <c r="AV17" s="18" t="str">
         <f t="shared" si="17"/>
-        <v>A1</v>
-      </c>
-      <c r="AV17" s="18" t="str">
+        <v>A2</v>
+      </c>
+      <c r="AW17" s="18" t="str">
         <f t="shared" si="18"/>
-        <v>A1</v>
-      </c>
-      <c r="AW17" s="18" t="str">
-        <f t="shared" si="19"/>
         <v>A1</v>
       </c>
       <c r="AX17" s="18"/>
@@ -4148,11 +4149,11 @@
         <v>500</v>
       </c>
       <c r="AZ17" s="19">
+        <f t="shared" si="19"/>
+        <v>422</v>
+      </c>
+      <c r="BA17" s="4">
         <f t="shared" si="20"/>
-        <v>422</v>
-      </c>
-      <c r="BA17" s="4">
-        <f t="shared" si="21"/>
         <v>84</v>
       </c>
       <c r="BB17" s="4">
@@ -4165,7 +4166,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:56">
       <c r="A18" s="4">
         <v>16</v>
       </c>
@@ -4181,8 +4182,8 @@
       <c r="E18" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F18" s="47" t="s">
-        <v>148</v>
+      <c r="F18" s="35" t="s">
+        <v>147</v>
       </c>
       <c r="G18" s="29" t="s">
         <v>83</v>
@@ -4197,7 +4198,7 @@
         <v>16</v>
       </c>
       <c r="K18" s="23">
-        <v>-19</v>
+        <v>19</v>
       </c>
       <c r="L18" s="23">
         <v>18</v>
@@ -4263,65 +4264,65 @@
         <v>39</v>
       </c>
       <c r="AG18" s="17">
+        <f t="shared" si="4"/>
+        <v>94</v>
+      </c>
+      <c r="AH18" s="17">
         <f t="shared" si="5"/>
-        <v>94</v>
-      </c>
-      <c r="AH18" s="17">
+        <v>89</v>
+      </c>
+      <c r="AI18" s="17">
         <f t="shared" si="6"/>
-        <v>89</v>
-      </c>
-      <c r="AI18" s="17">
+        <v>97</v>
+      </c>
+      <c r="AJ18" s="17">
         <f t="shared" si="7"/>
-        <v>59</v>
-      </c>
-      <c r="AJ18" s="17">
+        <v>96</v>
+      </c>
+      <c r="AK18" s="17">
         <f t="shared" si="8"/>
-        <v>96</v>
-      </c>
-      <c r="AK18" s="17">
-        <f t="shared" si="9"/>
         <v>97</v>
       </c>
       <c r="AL18" s="17"/>
       <c r="AM18" s="18">
-        <f t="shared" si="10"/>
-        <v>118</v>
+        <f t="shared" si="37"/>
+        <v>94</v>
       </c>
       <c r="AN18" s="18">
-        <f t="shared" si="11"/>
-        <v>111</v>
+        <f t="shared" si="38"/>
+        <v>89</v>
       </c>
       <c r="AO18" s="18">
-        <f t="shared" si="12"/>
-        <v>74</v>
+        <f t="shared" si="39"/>
+        <v>97</v>
       </c>
       <c r="AP18" s="18">
-        <f t="shared" si="13"/>
-        <v>120</v>
+        <f t="shared" si="40"/>
+        <v>96</v>
       </c>
       <c r="AQ18" s="18">
-        <f t="shared" si="14"/>
-        <v>121</v>
+        <f t="shared" si="41"/>
+        <v>97</v>
       </c>
       <c r="AR18" s="18"/>
       <c r="AS18" s="18" t="str">
+        <f t="shared" si="14"/>
+        <v>A1</v>
+      </c>
+      <c r="AT18" s="18" t="str">
         <f t="shared" si="15"/>
-        <v>A1</v>
-      </c>
-      <c r="AT18" s="18" t="str">
+        <v>A2</v>
+      </c>
+      <c r="AU18" s="18" t="str">
         <f t="shared" si="16"/>
         <v>A1</v>
       </c>
-      <c r="AU18" s="18" t="str">
+      <c r="AV18" s="18" t="str">
         <f t="shared" si="17"/>
-        <v>B1</v>
-      </c>
-      <c r="AV18" s="18" t="str">
+        <v>A1</v>
+      </c>
+      <c r="AW18" s="18" t="str">
         <f t="shared" si="18"/>
-        <v>A1</v>
-      </c>
-      <c r="AW18" s="18" t="str">
-        <f t="shared" si="19"/>
         <v>A1</v>
       </c>
       <c r="AX18" s="18"/>
@@ -4329,12 +4330,12 @@
         <v>500</v>
       </c>
       <c r="AZ18" s="19">
+        <f t="shared" si="19"/>
+        <v>473</v>
+      </c>
+      <c r="BA18" s="4">
         <f t="shared" si="20"/>
-        <v>435</v>
-      </c>
-      <c r="BA18" s="4">
-        <f t="shared" si="21"/>
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="BB18" s="4">
         <v>143</v>
@@ -4346,7 +4347,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:56">
       <c r="A19" s="4">
         <v>17</v>
       </c>
@@ -4362,8 +4363,8 @@
       <c r="E19" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F19" s="47" t="s">
-        <v>149</v>
+      <c r="F19" s="35" t="s">
+        <v>148</v>
       </c>
       <c r="G19" s="29" t="s">
         <v>87</v>
@@ -4444,65 +4445,65 @@
         <v>39</v>
       </c>
       <c r="AG19" s="17">
+        <f t="shared" si="4"/>
+        <v>90</v>
+      </c>
+      <c r="AH19" s="17">
         <f t="shared" si="5"/>
         <v>90</v>
       </c>
-      <c r="AH19" s="17">
+      <c r="AI19" s="17">
         <f t="shared" si="6"/>
-        <v>90</v>
-      </c>
-      <c r="AI19" s="17">
+        <v>97</v>
+      </c>
+      <c r="AJ19" s="17">
         <f t="shared" si="7"/>
         <v>97</v>
       </c>
-      <c r="AJ19" s="17">
+      <c r="AK19" s="17">
         <f t="shared" si="8"/>
-        <v>97</v>
-      </c>
-      <c r="AK19" s="17">
-        <f t="shared" si="9"/>
         <v>98</v>
       </c>
       <c r="AL19" s="17"/>
       <c r="AM19" s="18">
-        <f t="shared" si="10"/>
-        <v>113</v>
+        <f t="shared" si="37"/>
+        <v>90</v>
       </c>
       <c r="AN19" s="18">
-        <f t="shared" si="11"/>
-        <v>113</v>
+        <f t="shared" si="38"/>
+        <v>90</v>
       </c>
       <c r="AO19" s="18">
-        <f t="shared" si="12"/>
-        <v>121</v>
+        <f t="shared" si="39"/>
+        <v>97</v>
       </c>
       <c r="AP19" s="18">
-        <f t="shared" si="13"/>
-        <v>121</v>
+        <f t="shared" si="40"/>
+        <v>97</v>
       </c>
       <c r="AQ19" s="18">
-        <f t="shared" si="14"/>
-        <v>123</v>
+        <f t="shared" si="41"/>
+        <v>98</v>
       </c>
       <c r="AR19" s="18"/>
       <c r="AS19" s="18" t="str">
+        <f t="shared" si="14"/>
+        <v>A2</v>
+      </c>
+      <c r="AT19" s="18" t="str">
         <f t="shared" si="15"/>
-        <v>A1</v>
-      </c>
-      <c r="AT19" s="18" t="str">
+        <v>A2</v>
+      </c>
+      <c r="AU19" s="18" t="str">
         <f t="shared" si="16"/>
         <v>A1</v>
       </c>
-      <c r="AU19" s="18" t="str">
+      <c r="AV19" s="18" t="str">
         <f t="shared" si="17"/>
         <v>A1</v>
       </c>
-      <c r="AV19" s="18" t="str">
+      <c r="AW19" s="18" t="str">
         <f t="shared" si="18"/>
-        <v>A1</v>
-      </c>
-      <c r="AW19" s="18" t="str">
-        <f t="shared" si="19"/>
         <v>A1</v>
       </c>
       <c r="AX19" s="18"/>
@@ -4510,11 +4511,11 @@
         <v>500</v>
       </c>
       <c r="AZ19" s="19">
+        <f t="shared" si="19"/>
+        <v>472</v>
+      </c>
+      <c r="BA19" s="4">
         <f t="shared" si="20"/>
-        <v>472</v>
-      </c>
-      <c r="BA19" s="4">
-        <f t="shared" si="21"/>
         <v>94</v>
       </c>
       <c r="BB19" s="4">
@@ -4527,7 +4528,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:56">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -4543,8 +4544,8 @@
       <c r="E20" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F20" s="48" t="s">
-        <v>150</v>
+      <c r="F20" s="36" t="s">
+        <v>149</v>
       </c>
       <c r="G20" s="31" t="s">
         <v>90</v>
@@ -4625,65 +4626,65 @@
         <v>40</v>
       </c>
       <c r="AG20" s="20">
+        <f t="shared" si="4"/>
+        <v>79</v>
+      </c>
+      <c r="AH20" s="20">
         <f t="shared" si="5"/>
-        <v>79</v>
-      </c>
-      <c r="AH20" s="20">
+        <v>61</v>
+      </c>
+      <c r="AI20" s="20">
         <f t="shared" si="6"/>
-        <v>61</v>
-      </c>
-      <c r="AI20" s="20">
+        <v>78</v>
+      </c>
+      <c r="AJ20" s="20">
         <f t="shared" si="7"/>
         <v>78</v>
       </c>
-      <c r="AJ20" s="20">
+      <c r="AK20" s="20">
         <f t="shared" si="8"/>
-        <v>78</v>
-      </c>
-      <c r="AK20" s="20">
-        <f t="shared" si="9"/>
         <v>80</v>
       </c>
       <c r="AL20" s="20"/>
       <c r="AM20" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="27"/>
         <v>99</v>
       </c>
       <c r="AN20" s="21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>76</v>
       </c>
       <c r="AO20" s="21">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>98</v>
       </c>
       <c r="AP20" s="21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="30"/>
         <v>98</v>
       </c>
       <c r="AQ20" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>100</v>
       </c>
       <c r="AR20" s="21"/>
       <c r="AS20" s="21" t="str">
+        <f t="shared" si="14"/>
+        <v>A1</v>
+      </c>
+      <c r="AT20" s="21" t="str">
         <f t="shared" si="15"/>
-        <v>A1</v>
-      </c>
-      <c r="AT20" s="21" t="str">
+        <v>B1</v>
+      </c>
+      <c r="AU20" s="21" t="str">
         <f t="shared" si="16"/>
-        <v>B1</v>
-      </c>
-      <c r="AU20" s="21" t="str">
+        <v>A1</v>
+      </c>
+      <c r="AV20" s="21" t="str">
         <f t="shared" si="17"/>
         <v>A1</v>
       </c>
-      <c r="AV20" s="21" t="str">
+      <c r="AW20" s="21" t="str">
         <f t="shared" si="18"/>
-        <v>A1</v>
-      </c>
-      <c r="AW20" s="21" t="str">
-        <f t="shared" si="19"/>
         <v>A1</v>
       </c>
       <c r="AX20" s="21"/>
@@ -4691,11 +4692,11 @@
         <v>400</v>
       </c>
       <c r="AZ20" s="22">
+        <f t="shared" si="19"/>
+        <v>376</v>
+      </c>
+      <c r="BA20" s="5">
         <f t="shared" si="20"/>
-        <v>376</v>
-      </c>
-      <c r="BA20" s="5">
-        <f t="shared" si="21"/>
         <v>94</v>
       </c>
       <c r="BB20" s="2">
@@ -4705,10 +4706,10 @@
         <v>170</v>
       </c>
       <c r="BD20" s="34">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:56">
       <c r="A21" s="4">
         <v>19</v>
       </c>
@@ -4724,8 +4725,8 @@
       <c r="E21" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F21" s="47" t="s">
-        <v>151</v>
+      <c r="F21" s="35" t="s">
+        <v>150</v>
       </c>
       <c r="G21" s="29" t="s">
         <v>93</v>
@@ -4806,65 +4807,65 @@
         <v>39</v>
       </c>
       <c r="AG21" s="17">
+        <f t="shared" si="4"/>
+        <v>93</v>
+      </c>
+      <c r="AH21" s="17">
         <f t="shared" si="5"/>
-        <v>93</v>
-      </c>
-      <c r="AH21" s="17">
+        <v>82</v>
+      </c>
+      <c r="AI21" s="17">
         <f t="shared" si="6"/>
-        <v>82</v>
-      </c>
-      <c r="AI21" s="17">
+        <v>86</v>
+      </c>
+      <c r="AJ21" s="17">
         <f t="shared" si="7"/>
-        <v>86</v>
-      </c>
-      <c r="AJ21" s="17">
+        <v>94</v>
+      </c>
+      <c r="AK21" s="17">
         <f t="shared" si="8"/>
-        <v>94</v>
-      </c>
-      <c r="AK21" s="17">
-        <f t="shared" si="9"/>
         <v>96</v>
       </c>
       <c r="AL21" s="17"/>
       <c r="AM21" s="18">
-        <f t="shared" si="10"/>
-        <v>116</v>
+        <f t="shared" ref="AM21:AM32" si="42">ROUND(AG21/100*100,0)</f>
+        <v>93</v>
       </c>
       <c r="AN21" s="18">
-        <f t="shared" si="11"/>
-        <v>103</v>
+        <f t="shared" ref="AN21:AN32" si="43">ROUND(AH21/100*100,0)</f>
+        <v>82</v>
       </c>
       <c r="AO21" s="18">
-        <f t="shared" si="12"/>
-        <v>108</v>
+        <f t="shared" ref="AO21:AO32" si="44">ROUND(AI21/100*100,0)</f>
+        <v>86</v>
       </c>
       <c r="AP21" s="18">
-        <f t="shared" si="13"/>
-        <v>118</v>
+        <f t="shared" ref="AP21:AP32" si="45">ROUND(AJ21/100*100,0)</f>
+        <v>94</v>
       </c>
       <c r="AQ21" s="18">
-        <f t="shared" si="14"/>
-        <v>120</v>
+        <f t="shared" ref="AQ21:AQ32" si="46">ROUND(AK21/100*100,0)</f>
+        <v>96</v>
       </c>
       <c r="AR21" s="18"/>
       <c r="AS21" s="18" t="str">
+        <f t="shared" si="14"/>
+        <v>A1</v>
+      </c>
+      <c r="AT21" s="18" t="str">
         <f t="shared" si="15"/>
-        <v>A1</v>
-      </c>
-      <c r="AT21" s="18" t="str">
+        <v>A2</v>
+      </c>
+      <c r="AU21" s="18" t="str">
         <f t="shared" si="16"/>
-        <v>A1</v>
-      </c>
-      <c r="AU21" s="18" t="str">
+        <v>A2</v>
+      </c>
+      <c r="AV21" s="18" t="str">
         <f t="shared" si="17"/>
         <v>A1</v>
       </c>
-      <c r="AV21" s="18" t="str">
+      <c r="AW21" s="18" t="str">
         <f t="shared" si="18"/>
-        <v>A1</v>
-      </c>
-      <c r="AW21" s="18" t="str">
-        <f t="shared" si="19"/>
         <v>A1</v>
       </c>
       <c r="AX21" s="18"/>
@@ -4872,11 +4873,11 @@
         <v>500</v>
       </c>
       <c r="AZ21" s="19">
+        <f t="shared" si="19"/>
+        <v>451</v>
+      </c>
+      <c r="BA21" s="4">
         <f t="shared" si="20"/>
-        <v>451</v>
-      </c>
-      <c r="BA21" s="4">
-        <f t="shared" si="21"/>
         <v>90</v>
       </c>
       <c r="BB21" s="4">
@@ -4889,7 +4890,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:56">
       <c r="A22" s="4">
         <v>20</v>
       </c>
@@ -4905,8 +4906,8 @@
       <c r="E22" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F22" s="47" t="s">
-        <v>152</v>
+      <c r="F22" s="35" t="s">
+        <v>151</v>
       </c>
       <c r="G22" s="29" t="s">
         <v>96</v>
@@ -4987,65 +4988,65 @@
         <v>39</v>
       </c>
       <c r="AG22" s="17">
+        <f t="shared" si="4"/>
+        <v>97</v>
+      </c>
+      <c r="AH22" s="17">
         <f t="shared" si="5"/>
-        <v>97</v>
-      </c>
-      <c r="AH22" s="17">
+        <v>94</v>
+      </c>
+      <c r="AI22" s="17">
         <f t="shared" si="6"/>
-        <v>94</v>
-      </c>
-      <c r="AI22" s="17">
+        <v>100</v>
+      </c>
+      <c r="AJ22" s="17">
         <f t="shared" si="7"/>
-        <v>100</v>
-      </c>
-      <c r="AJ22" s="17">
+        <v>98</v>
+      </c>
+      <c r="AK22" s="17">
         <f t="shared" si="8"/>
-        <v>98</v>
-      </c>
-      <c r="AK22" s="17">
-        <f t="shared" si="9"/>
         <v>99</v>
       </c>
       <c r="AL22" s="17"/>
       <c r="AM22" s="18">
-        <f t="shared" si="10"/>
-        <v>121</v>
+        <f t="shared" si="42"/>
+        <v>97</v>
       </c>
       <c r="AN22" s="18">
-        <f t="shared" si="11"/>
-        <v>118</v>
+        <f t="shared" si="43"/>
+        <v>94</v>
       </c>
       <c r="AO22" s="18">
-        <f t="shared" si="12"/>
-        <v>125</v>
+        <f t="shared" si="44"/>
+        <v>100</v>
       </c>
       <c r="AP22" s="18">
-        <f t="shared" si="13"/>
-        <v>123</v>
+        <f t="shared" si="45"/>
+        <v>98</v>
       </c>
       <c r="AQ22" s="18">
-        <f t="shared" si="14"/>
-        <v>124</v>
+        <f t="shared" si="46"/>
+        <v>99</v>
       </c>
       <c r="AR22" s="18"/>
       <c r="AS22" s="18" t="str">
+        <f t="shared" si="14"/>
+        <v>A1</v>
+      </c>
+      <c r="AT22" s="18" t="str">
         <f t="shared" si="15"/>
         <v>A1</v>
       </c>
-      <c r="AT22" s="18" t="str">
+      <c r="AU22" s="18" t="str">
         <f t="shared" si="16"/>
         <v>A1</v>
       </c>
-      <c r="AU22" s="18" t="str">
+      <c r="AV22" s="18" t="str">
         <f t="shared" si="17"/>
         <v>A1</v>
       </c>
-      <c r="AV22" s="18" t="str">
+      <c r="AW22" s="18" t="str">
         <f t="shared" si="18"/>
-        <v>A1</v>
-      </c>
-      <c r="AW22" s="18" t="str">
-        <f t="shared" si="19"/>
         <v>A1</v>
       </c>
       <c r="AX22" s="18"/>
@@ -5053,11 +5054,11 @@
         <v>500</v>
       </c>
       <c r="AZ22" s="19">
+        <f t="shared" si="19"/>
+        <v>488</v>
+      </c>
+      <c r="BA22" s="4">
         <f t="shared" si="20"/>
-        <v>488</v>
-      </c>
-      <c r="BA22" s="4">
-        <f t="shared" si="21"/>
         <v>98</v>
       </c>
       <c r="BB22" s="4">
@@ -5070,7 +5071,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:56">
       <c r="A23" s="4">
         <v>21</v>
       </c>
@@ -5086,8 +5087,8 @@
       <c r="E23" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F23" s="47" t="s">
-        <v>153</v>
+      <c r="F23" s="35" t="s">
+        <v>152</v>
       </c>
       <c r="G23" s="29" t="s">
         <v>99</v>
@@ -5168,77 +5169,77 @@
         <v>40</v>
       </c>
       <c r="AG23" s="17">
+        <f t="shared" si="4"/>
+        <v>73</v>
+      </c>
+      <c r="AH23" s="17">
         <f t="shared" si="5"/>
-        <v>73</v>
-      </c>
-      <c r="AH23" s="17">
+        <v>54</v>
+      </c>
+      <c r="AI23" s="17">
         <f t="shared" si="6"/>
-        <v>54</v>
-      </c>
-      <c r="AI23" s="17">
+        <v>62</v>
+      </c>
+      <c r="AJ23" s="17">
         <f t="shared" si="7"/>
-        <v>62</v>
-      </c>
-      <c r="AJ23" s="17">
+        <v>69</v>
+      </c>
+      <c r="AK23" s="17">
         <f t="shared" si="8"/>
-        <v>69</v>
-      </c>
-      <c r="AK23" s="17">
-        <f t="shared" si="9"/>
         <v>73</v>
       </c>
       <c r="AL23" s="17"/>
       <c r="AM23" s="18">
-        <f t="shared" si="10"/>
-        <v>91</v>
+        <f t="shared" si="42"/>
+        <v>73</v>
       </c>
       <c r="AN23" s="18">
-        <f t="shared" si="11"/>
-        <v>68</v>
+        <f t="shared" si="43"/>
+        <v>54</v>
       </c>
       <c r="AO23" s="18">
-        <f t="shared" si="12"/>
-        <v>78</v>
+        <f t="shared" si="44"/>
+        <v>62</v>
       </c>
       <c r="AP23" s="18">
-        <f t="shared" si="13"/>
-        <v>86</v>
+        <f t="shared" si="45"/>
+        <v>69</v>
       </c>
       <c r="AQ23" s="18">
-        <f t="shared" si="14"/>
-        <v>91</v>
+        <f t="shared" si="46"/>
+        <v>73</v>
       </c>
       <c r="AR23" s="18"/>
       <c r="AS23" s="18" t="str">
+        <f t="shared" si="14"/>
+        <v>B1</v>
+      </c>
+      <c r="AT23" s="18" t="str">
         <f t="shared" si="15"/>
-        <v>A1</v>
-      </c>
-      <c r="AT23" s="18" t="str">
+        <v>C1</v>
+      </c>
+      <c r="AU23" s="18" t="str">
         <f t="shared" si="16"/>
         <v>B2</v>
       </c>
-      <c r="AU23" s="18" t="str">
+      <c r="AV23" s="18" t="str">
         <f t="shared" si="17"/>
+        <v>B2</v>
+      </c>
+      <c r="AW23" s="18" t="str">
+        <f t="shared" si="18"/>
         <v>B1</v>
-      </c>
-      <c r="AV23" s="18" t="str">
-        <f t="shared" si="18"/>
-        <v>A2</v>
-      </c>
-      <c r="AW23" s="18" t="str">
-        <f t="shared" si="19"/>
-        <v>A1</v>
       </c>
       <c r="AX23" s="18"/>
       <c r="AY23" s="24">
         <v>500</v>
       </c>
       <c r="AZ23" s="19">
+        <f t="shared" si="19"/>
+        <v>331</v>
+      </c>
+      <c r="BA23" s="4">
         <f t="shared" si="20"/>
-        <v>331</v>
-      </c>
-      <c r="BA23" s="4">
-        <f t="shared" si="21"/>
         <v>66</v>
       </c>
       <c r="BB23" s="4">
@@ -5251,7 +5252,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:56">
       <c r="A24" s="4">
         <v>22</v>
       </c>
@@ -5267,8 +5268,8 @@
       <c r="E24" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F24" s="47" t="s">
-        <v>154</v>
+      <c r="F24" s="35" t="s">
+        <v>153</v>
       </c>
       <c r="G24" s="29" t="s">
         <v>102</v>
@@ -5349,65 +5350,65 @@
         <v>39</v>
       </c>
       <c r="AG24" s="17">
+        <f t="shared" si="4"/>
+        <v>99</v>
+      </c>
+      <c r="AH24" s="17">
         <f t="shared" si="5"/>
-        <v>99</v>
-      </c>
-      <c r="AH24" s="17">
+        <v>96</v>
+      </c>
+      <c r="AI24" s="17">
         <f t="shared" si="6"/>
-        <v>96</v>
-      </c>
-      <c r="AI24" s="17">
+        <v>98</v>
+      </c>
+      <c r="AJ24" s="17">
         <f t="shared" si="7"/>
-        <v>98</v>
-      </c>
-      <c r="AJ24" s="17">
+        <v>100</v>
+      </c>
+      <c r="AK24" s="17">
         <f t="shared" si="8"/>
         <v>100</v>
       </c>
-      <c r="AK24" s="17">
-        <f t="shared" si="9"/>
-        <v>100</v>
-      </c>
       <c r="AL24" s="17"/>
       <c r="AM24" s="18">
-        <f t="shared" si="10"/>
-        <v>124</v>
+        <f t="shared" si="42"/>
+        <v>99</v>
       </c>
       <c r="AN24" s="18">
-        <f t="shared" si="11"/>
-        <v>120</v>
+        <f t="shared" si="43"/>
+        <v>96</v>
       </c>
       <c r="AO24" s="18">
-        <f t="shared" si="12"/>
-        <v>123</v>
+        <f t="shared" si="44"/>
+        <v>98</v>
       </c>
       <c r="AP24" s="18">
-        <f t="shared" si="13"/>
-        <v>125</v>
+        <f t="shared" si="45"/>
+        <v>100</v>
       </c>
       <c r="AQ24" s="18">
-        <f t="shared" si="14"/>
-        <v>125</v>
+        <f t="shared" si="46"/>
+        <v>100</v>
       </c>
       <c r="AR24" s="18"/>
       <c r="AS24" s="18" t="str">
+        <f t="shared" si="14"/>
+        <v>A1</v>
+      </c>
+      <c r="AT24" s="18" t="str">
         <f t="shared" si="15"/>
         <v>A1</v>
       </c>
-      <c r="AT24" s="18" t="str">
+      <c r="AU24" s="18" t="str">
         <f t="shared" si="16"/>
         <v>A1</v>
       </c>
-      <c r="AU24" s="18" t="str">
+      <c r="AV24" s="18" t="str">
         <f t="shared" si="17"/>
         <v>A1</v>
       </c>
-      <c r="AV24" s="18" t="str">
+      <c r="AW24" s="18" t="str">
         <f t="shared" si="18"/>
-        <v>A1</v>
-      </c>
-      <c r="AW24" s="18" t="str">
-        <f t="shared" si="19"/>
         <v>A1</v>
       </c>
       <c r="AX24" s="18"/>
@@ -5415,11 +5416,11 @@
         <v>500</v>
       </c>
       <c r="AZ24" s="19">
+        <f t="shared" si="19"/>
+        <v>493</v>
+      </c>
+      <c r="BA24" s="4">
         <f t="shared" si="20"/>
-        <v>493</v>
-      </c>
-      <c r="BA24" s="4">
-        <f t="shared" si="21"/>
         <v>99</v>
       </c>
       <c r="BB24" s="4">
@@ -5432,7 +5433,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="25" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:56">
       <c r="A25" s="4">
         <v>23</v>
       </c>
@@ -5440,7 +5441,7 @@
         <v>2938</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>104</v>
+        <v>164</v>
       </c>
       <c r="D25" s="24">
         <v>9368594322</v>
@@ -5448,14 +5449,14 @@
       <c r="E25" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F25" s="47" t="s">
-        <v>155</v>
+      <c r="F25" s="35" t="s">
+        <v>154</v>
       </c>
       <c r="G25" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="H25" s="29" t="s">
         <v>105</v>
-      </c>
-      <c r="H25" s="29" t="s">
-        <v>106</v>
       </c>
       <c r="I25" s="23">
         <v>19</v>
@@ -5530,65 +5531,65 @@
         <v>39</v>
       </c>
       <c r="AG25" s="17">
+        <f t="shared" si="4"/>
+        <v>98</v>
+      </c>
+      <c r="AH25" s="17">
         <f t="shared" si="5"/>
         <v>98</v>
       </c>
-      <c r="AH25" s="17">
+      <c r="AI25" s="17">
         <f t="shared" si="6"/>
-        <v>98</v>
-      </c>
-      <c r="AI25" s="17">
+        <v>99</v>
+      </c>
+      <c r="AJ25" s="17">
         <f t="shared" si="7"/>
         <v>99</v>
       </c>
-      <c r="AJ25" s="17">
+      <c r="AK25" s="17">
         <f t="shared" si="8"/>
-        <v>99</v>
-      </c>
-      <c r="AK25" s="17">
-        <f t="shared" si="9"/>
         <v>100</v>
       </c>
       <c r="AL25" s="17"/>
       <c r="AM25" s="18">
-        <f t="shared" si="10"/>
-        <v>123</v>
+        <f t="shared" si="42"/>
+        <v>98</v>
       </c>
       <c r="AN25" s="18">
-        <f t="shared" si="11"/>
-        <v>123</v>
+        <f t="shared" si="43"/>
+        <v>98</v>
       </c>
       <c r="AO25" s="18">
-        <f t="shared" si="12"/>
-        <v>124</v>
+        <f t="shared" si="44"/>
+        <v>99</v>
       </c>
       <c r="AP25" s="18">
-        <f t="shared" si="13"/>
-        <v>124</v>
+        <f t="shared" si="45"/>
+        <v>99</v>
       </c>
       <c r="AQ25" s="18">
-        <f t="shared" si="14"/>
-        <v>125</v>
+        <f t="shared" si="46"/>
+        <v>100</v>
       </c>
       <c r="AR25" s="18"/>
       <c r="AS25" s="18" t="str">
+        <f t="shared" si="14"/>
+        <v>A1</v>
+      </c>
+      <c r="AT25" s="18" t="str">
         <f t="shared" si="15"/>
         <v>A1</v>
       </c>
-      <c r="AT25" s="18" t="str">
+      <c r="AU25" s="18" t="str">
         <f t="shared" si="16"/>
         <v>A1</v>
       </c>
-      <c r="AU25" s="18" t="str">
+      <c r="AV25" s="18" t="str">
         <f t="shared" si="17"/>
         <v>A1</v>
       </c>
-      <c r="AV25" s="18" t="str">
+      <c r="AW25" s="18" t="str">
         <f t="shared" si="18"/>
-        <v>A1</v>
-      </c>
-      <c r="AW25" s="18" t="str">
-        <f t="shared" si="19"/>
         <v>A1</v>
       </c>
       <c r="AX25" s="18"/>
@@ -5596,11 +5597,11 @@
         <v>500</v>
       </c>
       <c r="AZ25" s="19">
+        <f t="shared" si="19"/>
+        <v>494</v>
+      </c>
+      <c r="BA25" s="4">
         <f t="shared" si="20"/>
-        <v>494</v>
-      </c>
-      <c r="BA25" s="4">
-        <f t="shared" si="21"/>
         <v>99</v>
       </c>
       <c r="BB25" s="4">
@@ -5613,7 +5614,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:56">
       <c r="A26" s="4">
         <v>24</v>
       </c>
@@ -5621,7 +5622,7 @@
         <v>2853</v>
       </c>
       <c r="C26" s="29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D26" s="24">
         <v>8192802460</v>
@@ -5629,14 +5630,14 @@
       <c r="E26" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F26" s="47" t="s">
-        <v>156</v>
+      <c r="F26" s="35" t="s">
+        <v>155</v>
       </c>
       <c r="G26" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="H26" s="29" t="s">
         <v>108</v>
-      </c>
-      <c r="H26" s="29" t="s">
-        <v>109</v>
       </c>
       <c r="I26" s="23">
         <v>19</v>
@@ -5711,65 +5712,65 @@
         <v>39</v>
       </c>
       <c r="AG26" s="17">
+        <f t="shared" si="4"/>
+        <v>98</v>
+      </c>
+      <c r="AH26" s="17">
         <f t="shared" si="5"/>
-        <v>98</v>
-      </c>
-      <c r="AH26" s="17">
+        <v>91</v>
+      </c>
+      <c r="AI26" s="17">
         <f t="shared" si="6"/>
         <v>91</v>
       </c>
-      <c r="AI26" s="17">
+      <c r="AJ26" s="17">
         <f t="shared" si="7"/>
-        <v>91</v>
-      </c>
-      <c r="AJ26" s="17">
+        <v>98</v>
+      </c>
+      <c r="AK26" s="17">
         <f t="shared" si="8"/>
         <v>98</v>
       </c>
-      <c r="AK26" s="17">
-        <f t="shared" si="9"/>
-        <v>98</v>
-      </c>
       <c r="AL26" s="17"/>
       <c r="AM26" s="18">
-        <f t="shared" si="10"/>
-        <v>123</v>
+        <f t="shared" si="42"/>
+        <v>98</v>
       </c>
       <c r="AN26" s="18">
-        <f t="shared" si="11"/>
-        <v>114</v>
+        <f t="shared" si="43"/>
+        <v>91</v>
       </c>
       <c r="AO26" s="18">
-        <f t="shared" si="12"/>
-        <v>114</v>
+        <f t="shared" si="44"/>
+        <v>91</v>
       </c>
       <c r="AP26" s="18">
-        <f t="shared" si="13"/>
-        <v>123</v>
+        <f t="shared" si="45"/>
+        <v>98</v>
       </c>
       <c r="AQ26" s="18">
-        <f t="shared" si="14"/>
-        <v>123</v>
+        <f t="shared" si="46"/>
+        <v>98</v>
       </c>
       <c r="AR26" s="18"/>
       <c r="AS26" s="18" t="str">
+        <f t="shared" si="14"/>
+        <v>A1</v>
+      </c>
+      <c r="AT26" s="18" t="str">
         <f t="shared" si="15"/>
         <v>A1</v>
       </c>
-      <c r="AT26" s="18" t="str">
+      <c r="AU26" s="18" t="str">
         <f t="shared" si="16"/>
         <v>A1</v>
       </c>
-      <c r="AU26" s="18" t="str">
+      <c r="AV26" s="18" t="str">
         <f t="shared" si="17"/>
         <v>A1</v>
       </c>
-      <c r="AV26" s="18" t="str">
+      <c r="AW26" s="18" t="str">
         <f t="shared" si="18"/>
-        <v>A1</v>
-      </c>
-      <c r="AW26" s="18" t="str">
-        <f t="shared" si="19"/>
         <v>A1</v>
       </c>
       <c r="AX26" s="18"/>
@@ -5777,11 +5778,11 @@
         <v>500</v>
       </c>
       <c r="AZ26" s="19">
+        <f t="shared" si="19"/>
+        <v>476</v>
+      </c>
+      <c r="BA26" s="4">
         <f t="shared" si="20"/>
-        <v>476</v>
-      </c>
-      <c r="BA26" s="4">
-        <f t="shared" si="21"/>
         <v>95</v>
       </c>
       <c r="BB26" s="4">
@@ -5794,7 +5795,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:56">
       <c r="A27" s="4">
         <v>25</v>
       </c>
@@ -5802,7 +5803,7 @@
         <v>3019</v>
       </c>
       <c r="C27" s="29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D27" s="24">
         <v>8054118257</v>
@@ -5810,14 +5811,14 @@
       <c r="E27" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F27" s="47" t="s">
-        <v>157</v>
+      <c r="F27" s="35" t="s">
+        <v>156</v>
       </c>
       <c r="G27" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="H27" s="29" t="s">
         <v>111</v>
-      </c>
-      <c r="H27" s="29" t="s">
-        <v>112</v>
       </c>
       <c r="I27" s="23">
         <v>14</v>
@@ -5892,77 +5893,77 @@
         <v>40</v>
       </c>
       <c r="AG27" s="17">
+        <f t="shared" si="4"/>
+        <v>58</v>
+      </c>
+      <c r="AH27" s="17">
         <f t="shared" si="5"/>
-        <v>58</v>
-      </c>
-      <c r="AH27" s="17">
+        <v>44</v>
+      </c>
+      <c r="AI27" s="17">
         <f t="shared" si="6"/>
-        <v>44</v>
-      </c>
-      <c r="AI27" s="17">
+        <v>56</v>
+      </c>
+      <c r="AJ27" s="17">
         <f t="shared" si="7"/>
-        <v>56</v>
-      </c>
-      <c r="AJ27" s="17">
+        <v>64</v>
+      </c>
+      <c r="AK27" s="17">
         <f t="shared" si="8"/>
-        <v>64</v>
-      </c>
-      <c r="AK27" s="17">
-        <f t="shared" si="9"/>
         <v>74</v>
       </c>
       <c r="AL27" s="17"/>
       <c r="AM27" s="18">
-        <f t="shared" si="10"/>
-        <v>73</v>
+        <f t="shared" si="42"/>
+        <v>58</v>
       </c>
       <c r="AN27" s="18">
-        <f t="shared" si="11"/>
-        <v>55</v>
+        <f t="shared" si="43"/>
+        <v>44</v>
       </c>
       <c r="AO27" s="18">
-        <f t="shared" si="12"/>
-        <v>70</v>
+        <f t="shared" si="44"/>
+        <v>56</v>
       </c>
       <c r="AP27" s="18">
-        <f t="shared" si="13"/>
-        <v>80</v>
+        <f t="shared" si="45"/>
+        <v>64</v>
       </c>
       <c r="AQ27" s="18">
-        <f t="shared" si="14"/>
-        <v>93</v>
+        <f t="shared" si="46"/>
+        <v>74</v>
       </c>
       <c r="AR27" s="18"/>
       <c r="AS27" s="18" t="str">
+        <f t="shared" si="14"/>
+        <v>C1</v>
+      </c>
+      <c r="AT27" s="18" t="str">
         <f t="shared" si="15"/>
-        <v>B1</v>
-      </c>
-      <c r="AT27" s="18" t="str">
+        <v>C2</v>
+      </c>
+      <c r="AU27" s="18" t="str">
         <f t="shared" si="16"/>
         <v>C1</v>
       </c>
-      <c r="AU27" s="18" t="str">
+      <c r="AV27" s="18" t="str">
         <f t="shared" si="17"/>
         <v>B2</v>
       </c>
-      <c r="AV27" s="18" t="str">
+      <c r="AW27" s="18" t="str">
         <f t="shared" si="18"/>
         <v>B1</v>
-      </c>
-      <c r="AW27" s="18" t="str">
-        <f t="shared" si="19"/>
-        <v>A1</v>
       </c>
       <c r="AX27" s="18"/>
       <c r="AY27" s="24">
         <v>500</v>
       </c>
       <c r="AZ27" s="19">
+        <f t="shared" si="19"/>
+        <v>296</v>
+      </c>
+      <c r="BA27" s="4">
         <f t="shared" si="20"/>
-        <v>296</v>
-      </c>
-      <c r="BA27" s="4">
-        <f t="shared" si="21"/>
         <v>59</v>
       </c>
       <c r="BB27" s="4">
@@ -5975,7 +5976,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:56">
       <c r="A28" s="4">
         <v>26</v>
       </c>
@@ -5983,7 +5984,7 @@
         <v>3011</v>
       </c>
       <c r="C28" s="29" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D28" s="24">
         <v>8120959130</v>
@@ -5991,14 +5992,14 @@
       <c r="E28" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F28" s="47" t="s">
-        <v>158</v>
+      <c r="F28" s="35" t="s">
+        <v>157</v>
       </c>
       <c r="G28" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="H28" s="29" t="s">
         <v>114</v>
-      </c>
-      <c r="H28" s="29" t="s">
-        <v>115</v>
       </c>
       <c r="I28" s="23">
         <v>19</v>
@@ -6073,65 +6074,65 @@
         <v>39</v>
       </c>
       <c r="AG28" s="17">
+        <f t="shared" si="4"/>
+        <v>97</v>
+      </c>
+      <c r="AH28" s="17">
         <f t="shared" si="5"/>
-        <v>97</v>
-      </c>
-      <c r="AH28" s="17">
+        <v>80</v>
+      </c>
+      <c r="AI28" s="17">
         <f t="shared" si="6"/>
-        <v>80</v>
-      </c>
-      <c r="AI28" s="17">
+        <v>99</v>
+      </c>
+      <c r="AJ28" s="17">
         <f t="shared" si="7"/>
-        <v>99</v>
-      </c>
-      <c r="AJ28" s="17">
+        <v>95</v>
+      </c>
+      <c r="AK28" s="17">
         <f t="shared" si="8"/>
-        <v>95</v>
-      </c>
-      <c r="AK28" s="17">
-        <f t="shared" si="9"/>
         <v>99</v>
       </c>
       <c r="AL28" s="17"/>
       <c r="AM28" s="18">
-        <f t="shared" si="10"/>
-        <v>121</v>
+        <f t="shared" si="42"/>
+        <v>97</v>
       </c>
       <c r="AN28" s="18">
-        <f t="shared" si="11"/>
-        <v>100</v>
+        <f t="shared" si="43"/>
+        <v>80</v>
       </c>
       <c r="AO28" s="18">
-        <f t="shared" si="12"/>
-        <v>124</v>
+        <f t="shared" si="44"/>
+        <v>99</v>
       </c>
       <c r="AP28" s="18">
-        <f t="shared" si="13"/>
-        <v>119</v>
+        <f t="shared" si="45"/>
+        <v>95</v>
       </c>
       <c r="AQ28" s="18">
-        <f t="shared" si="14"/>
-        <v>124</v>
+        <f t="shared" si="46"/>
+        <v>99</v>
       </c>
       <c r="AR28" s="18"/>
       <c r="AS28" s="18" t="str">
+        <f t="shared" si="14"/>
+        <v>A1</v>
+      </c>
+      <c r="AT28" s="18" t="str">
         <f t="shared" si="15"/>
-        <v>A1</v>
-      </c>
-      <c r="AT28" s="18" t="str">
+        <v>B1</v>
+      </c>
+      <c r="AU28" s="18" t="str">
         <f t="shared" si="16"/>
         <v>A1</v>
       </c>
-      <c r="AU28" s="18" t="str">
+      <c r="AV28" s="18" t="str">
         <f t="shared" si="17"/>
         <v>A1</v>
       </c>
-      <c r="AV28" s="18" t="str">
+      <c r="AW28" s="18" t="str">
         <f t="shared" si="18"/>
-        <v>A1</v>
-      </c>
-      <c r="AW28" s="18" t="str">
-        <f t="shared" si="19"/>
         <v>A1</v>
       </c>
       <c r="AX28" s="18"/>
@@ -6139,11 +6140,11 @@
         <v>500</v>
       </c>
       <c r="AZ28" s="19">
+        <f t="shared" si="19"/>
+        <v>470</v>
+      </c>
+      <c r="BA28" s="4">
         <f t="shared" si="20"/>
-        <v>470</v>
-      </c>
-      <c r="BA28" s="4">
-        <f t="shared" si="21"/>
         <v>94</v>
       </c>
       <c r="BB28" s="4">
@@ -6156,7 +6157,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:56">
       <c r="A29" s="4">
         <v>27</v>
       </c>
@@ -6164,7 +6165,7 @@
         <v>2817</v>
       </c>
       <c r="C29" s="29" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D29" s="24">
         <v>9990654211</v>
@@ -6172,14 +6173,14 @@
       <c r="E29" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F29" s="47" t="s">
-        <v>159</v>
+      <c r="F29" s="35" t="s">
+        <v>158</v>
       </c>
       <c r="G29" s="29" t="s">
         <v>70</v>
       </c>
       <c r="H29" s="29" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="I29" s="23">
         <v>19</v>
@@ -6254,65 +6255,65 @@
         <v>39</v>
       </c>
       <c r="AG29" s="17">
+        <f t="shared" si="4"/>
+        <v>98</v>
+      </c>
+      <c r="AH29" s="17">
         <f t="shared" si="5"/>
-        <v>98</v>
-      </c>
-      <c r="AH29" s="17">
+        <v>99</v>
+      </c>
+      <c r="AI29" s="17">
         <f t="shared" si="6"/>
+        <v>100</v>
+      </c>
+      <c r="AJ29" s="17">
+        <f t="shared" si="7"/>
         <v>99</v>
       </c>
-      <c r="AI29" s="17">
-        <f t="shared" si="7"/>
-        <v>100</v>
-      </c>
-      <c r="AJ29" s="17">
+      <c r="AK29" s="17">
         <f t="shared" si="8"/>
-        <v>99</v>
-      </c>
-      <c r="AK29" s="17">
-        <f t="shared" si="9"/>
         <v>98</v>
       </c>
       <c r="AL29" s="17"/>
       <c r="AM29" s="18">
-        <f t="shared" si="10"/>
-        <v>123</v>
+        <f t="shared" si="42"/>
+        <v>98</v>
       </c>
       <c r="AN29" s="18">
-        <f t="shared" si="11"/>
-        <v>124</v>
+        <f t="shared" si="43"/>
+        <v>99</v>
       </c>
       <c r="AO29" s="18">
-        <f t="shared" si="12"/>
-        <v>125</v>
+        <f t="shared" si="44"/>
+        <v>100</v>
       </c>
       <c r="AP29" s="18">
-        <f t="shared" si="13"/>
-        <v>124</v>
+        <f t="shared" si="45"/>
+        <v>99</v>
       </c>
       <c r="AQ29" s="18">
-        <f t="shared" si="14"/>
-        <v>123</v>
+        <f t="shared" si="46"/>
+        <v>98</v>
       </c>
       <c r="AR29" s="18"/>
       <c r="AS29" s="18" t="str">
+        <f t="shared" si="14"/>
+        <v>A1</v>
+      </c>
+      <c r="AT29" s="18" t="str">
         <f t="shared" si="15"/>
         <v>A1</v>
       </c>
-      <c r="AT29" s="18" t="str">
+      <c r="AU29" s="18" t="str">
         <f t="shared" si="16"/>
         <v>A1</v>
       </c>
-      <c r="AU29" s="18" t="str">
+      <c r="AV29" s="18" t="str">
         <f t="shared" si="17"/>
         <v>A1</v>
       </c>
-      <c r="AV29" s="18" t="str">
+      <c r="AW29" s="18" t="str">
         <f t="shared" si="18"/>
-        <v>A1</v>
-      </c>
-      <c r="AW29" s="18" t="str">
-        <f t="shared" si="19"/>
         <v>A1</v>
       </c>
       <c r="AX29" s="18"/>
@@ -6320,11 +6321,11 @@
         <v>500</v>
       </c>
       <c r="AZ29" s="19">
+        <f t="shared" si="19"/>
+        <v>494</v>
+      </c>
+      <c r="BA29" s="4">
         <f t="shared" si="20"/>
-        <v>494</v>
-      </c>
-      <c r="BA29" s="4">
-        <f t="shared" si="21"/>
         <v>99</v>
       </c>
       <c r="BB29" s="4">
@@ -6337,7 +6338,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:56">
       <c r="A30" s="4">
         <v>28</v>
       </c>
@@ -6345,7 +6346,7 @@
         <v>2976</v>
       </c>
       <c r="C30" s="29" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D30" s="24">
         <v>8979816079</v>
@@ -6353,8 +6354,8 @@
       <c r="E30" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F30" s="47" t="s">
-        <v>160</v>
+      <c r="F30" s="35" t="s">
+        <v>159</v>
       </c>
       <c r="G30" s="29" t="s">
         <v>36</v>
@@ -6435,77 +6436,77 @@
         <v>39</v>
       </c>
       <c r="AG30" s="17">
+        <f t="shared" si="4"/>
+        <v>74</v>
+      </c>
+      <c r="AH30" s="17">
         <f t="shared" si="5"/>
-        <v>74</v>
-      </c>
-      <c r="AH30" s="17">
+        <v>78</v>
+      </c>
+      <c r="AI30" s="17">
         <f t="shared" si="6"/>
-        <v>78</v>
-      </c>
-      <c r="AI30" s="17">
+        <v>80</v>
+      </c>
+      <c r="AJ30" s="17">
         <f t="shared" si="7"/>
-        <v>80</v>
-      </c>
-      <c r="AJ30" s="17">
+        <v>84</v>
+      </c>
+      <c r="AK30" s="17">
         <f t="shared" si="8"/>
-        <v>84</v>
-      </c>
-      <c r="AK30" s="17">
-        <f t="shared" si="9"/>
         <v>82</v>
       </c>
       <c r="AL30" s="17"/>
       <c r="AM30" s="18">
-        <f t="shared" si="10"/>
-        <v>93</v>
+        <f t="shared" si="42"/>
+        <v>74</v>
       </c>
       <c r="AN30" s="18">
-        <f t="shared" si="11"/>
-        <v>98</v>
+        <f t="shared" si="43"/>
+        <v>78</v>
       </c>
       <c r="AO30" s="18">
-        <f t="shared" si="12"/>
-        <v>100</v>
+        <f t="shared" si="44"/>
+        <v>80</v>
       </c>
       <c r="AP30" s="18">
-        <f t="shared" si="13"/>
-        <v>105</v>
+        <f t="shared" si="45"/>
+        <v>84</v>
       </c>
       <c r="AQ30" s="18">
-        <f t="shared" si="14"/>
-        <v>103</v>
+        <f t="shared" si="46"/>
+        <v>82</v>
       </c>
       <c r="AR30" s="18"/>
       <c r="AS30" s="18" t="str">
+        <f t="shared" si="14"/>
+        <v>B1</v>
+      </c>
+      <c r="AT30" s="18" t="str">
         <f t="shared" si="15"/>
-        <v>A1</v>
-      </c>
-      <c r="AT30" s="18" t="str">
+        <v>B1</v>
+      </c>
+      <c r="AU30" s="18" t="str">
         <f t="shared" si="16"/>
-        <v>A1</v>
-      </c>
-      <c r="AU30" s="18" t="str">
+        <v>B1</v>
+      </c>
+      <c r="AV30" s="18" t="str">
         <f t="shared" si="17"/>
-        <v>A1</v>
-      </c>
-      <c r="AV30" s="18" t="str">
+        <v>A2</v>
+      </c>
+      <c r="AW30" s="18" t="str">
         <f t="shared" si="18"/>
-        <v>A1</v>
-      </c>
-      <c r="AW30" s="18" t="str">
-        <f t="shared" si="19"/>
-        <v>A1</v>
+        <v>A2</v>
       </c>
       <c r="AX30" s="18"/>
       <c r="AY30" s="24">
         <v>500</v>
       </c>
       <c r="AZ30" s="19">
+        <f t="shared" si="19"/>
+        <v>398</v>
+      </c>
+      <c r="BA30" s="4">
         <f t="shared" si="20"/>
-        <v>398</v>
-      </c>
-      <c r="BA30" s="4">
-        <f t="shared" si="21"/>
         <v>80</v>
       </c>
       <c r="BB30" s="4">
@@ -6518,7 +6519,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="31" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:56">
       <c r="A31" s="27">
         <v>29</v>
       </c>
@@ -6526,7 +6527,7 @@
         <v>2937</v>
       </c>
       <c r="C31" s="29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D31" s="24">
         <v>7895828571</v>
@@ -6534,14 +6535,14 @@
       <c r="E31" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F31" s="47" t="s">
-        <v>161</v>
+      <c r="F31" s="35" t="s">
+        <v>160</v>
       </c>
       <c r="G31" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="H31" s="29" t="s">
         <v>120</v>
-      </c>
-      <c r="H31" s="29" t="s">
-        <v>121</v>
       </c>
       <c r="I31" s="23">
         <v>8</v>
@@ -6616,77 +6617,77 @@
         <v>40</v>
       </c>
       <c r="AG31" s="17">
+        <f t="shared" si="4"/>
+        <v>44</v>
+      </c>
+      <c r="AH31" s="17">
         <f t="shared" si="5"/>
-        <v>44</v>
-      </c>
-      <c r="AH31" s="17">
+        <v>32</v>
+      </c>
+      <c r="AI31" s="17">
         <f t="shared" si="6"/>
-        <v>32</v>
-      </c>
-      <c r="AI31" s="17">
+        <v>48</v>
+      </c>
+      <c r="AJ31" s="17">
         <f t="shared" si="7"/>
-        <v>48</v>
-      </c>
-      <c r="AJ31" s="17">
+        <v>56</v>
+      </c>
+      <c r="AK31" s="17">
         <f t="shared" si="8"/>
         <v>56</v>
       </c>
-      <c r="AK31" s="17">
-        <f t="shared" si="9"/>
-        <v>56</v>
-      </c>
       <c r="AL31" s="17"/>
       <c r="AM31" s="18">
-        <f t="shared" si="10"/>
-        <v>55</v>
+        <f t="shared" si="42"/>
+        <v>44</v>
       </c>
       <c r="AN31" s="18">
-        <f t="shared" si="11"/>
-        <v>40</v>
+        <f t="shared" si="43"/>
+        <v>32</v>
       </c>
       <c r="AO31" s="18">
-        <f t="shared" si="12"/>
-        <v>60</v>
+        <f t="shared" si="44"/>
+        <v>48</v>
       </c>
       <c r="AP31" s="18">
-        <f t="shared" si="13"/>
-        <v>70</v>
+        <f t="shared" si="45"/>
+        <v>56</v>
       </c>
       <c r="AQ31" s="18">
-        <f t="shared" si="14"/>
-        <v>70</v>
+        <f t="shared" si="46"/>
+        <v>56</v>
       </c>
       <c r="AR31" s="18"/>
       <c r="AS31" s="18" t="str">
+        <f t="shared" si="14"/>
+        <v>C2</v>
+      </c>
+      <c r="AT31" s="18" t="str">
         <f t="shared" si="15"/>
-        <v>C1</v>
-      </c>
-      <c r="AT31" s="18" t="str">
+        <v>E</v>
+      </c>
+      <c r="AU31" s="18" t="str">
         <f t="shared" si="16"/>
-        <v>D</v>
-      </c>
-      <c r="AU31" s="18" t="str">
+        <v>C2</v>
+      </c>
+      <c r="AV31" s="18" t="str">
         <f t="shared" si="17"/>
         <v>C1</v>
       </c>
-      <c r="AV31" s="18" t="str">
+      <c r="AW31" s="18" t="str">
         <f t="shared" si="18"/>
-        <v>B2</v>
-      </c>
-      <c r="AW31" s="18" t="str">
-        <f t="shared" si="19"/>
-        <v>B2</v>
+        <v>C1</v>
       </c>
       <c r="AX31" s="18"/>
       <c r="AY31" s="24">
         <v>500</v>
       </c>
       <c r="AZ31" s="19">
+        <f t="shared" si="19"/>
+        <v>236</v>
+      </c>
+      <c r="BA31" s="4">
         <f t="shared" si="20"/>
-        <v>236</v>
-      </c>
-      <c r="BA31" s="4">
-        <f t="shared" si="21"/>
         <v>47</v>
       </c>
       <c r="BB31" s="4">
@@ -6699,7 +6700,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:56">
       <c r="A32" s="4">
         <v>30</v>
       </c>
@@ -6707,7 +6708,7 @@
         <v>2936</v>
       </c>
       <c r="C32" s="29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D32" s="24">
         <v>9997422398</v>
@@ -6715,14 +6716,14 @@
       <c r="E32" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F32" s="47" t="s">
-        <v>162</v>
+      <c r="F32" s="35" t="s">
+        <v>161</v>
       </c>
       <c r="G32" s="29" t="s">
         <v>31</v>
       </c>
       <c r="H32" s="29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="I32" s="23">
         <v>14</v>
@@ -6797,77 +6798,77 @@
         <v>39</v>
       </c>
       <c r="AG32" s="17">
+        <f t="shared" si="4"/>
+        <v>71</v>
+      </c>
+      <c r="AH32" s="17">
         <f t="shared" si="5"/>
-        <v>71</v>
-      </c>
-      <c r="AH32" s="17">
+        <v>67</v>
+      </c>
+      <c r="AI32" s="17">
         <f t="shared" si="6"/>
-        <v>67</v>
-      </c>
-      <c r="AI32" s="17">
+        <v>80</v>
+      </c>
+      <c r="AJ32" s="17">
         <f t="shared" si="7"/>
         <v>80</v>
       </c>
-      <c r="AJ32" s="17">
+      <c r="AK32" s="17">
         <f t="shared" si="8"/>
-        <v>80</v>
-      </c>
-      <c r="AK32" s="17">
-        <f t="shared" si="9"/>
         <v>81</v>
       </c>
       <c r="AL32" s="17"/>
       <c r="AM32" s="18">
-        <f t="shared" si="10"/>
-        <v>89</v>
+        <f t="shared" si="42"/>
+        <v>71</v>
       </c>
       <c r="AN32" s="18">
-        <f t="shared" si="11"/>
-        <v>84</v>
+        <f t="shared" si="43"/>
+        <v>67</v>
       </c>
       <c r="AO32" s="18">
-        <f t="shared" si="12"/>
-        <v>100</v>
+        <f t="shared" si="44"/>
+        <v>80</v>
       </c>
       <c r="AP32" s="18">
-        <f t="shared" si="13"/>
-        <v>100</v>
+        <f t="shared" si="45"/>
+        <v>80</v>
       </c>
       <c r="AQ32" s="18">
-        <f t="shared" si="14"/>
-        <v>101</v>
+        <f t="shared" si="46"/>
+        <v>81</v>
       </c>
       <c r="AR32" s="18"/>
       <c r="AS32" s="18" t="str">
+        <f t="shared" si="14"/>
+        <v>B1</v>
+      </c>
+      <c r="AT32" s="18" t="str">
         <f t="shared" si="15"/>
+        <v>B2</v>
+      </c>
+      <c r="AU32" s="18" t="str">
+        <f t="shared" si="16"/>
+        <v>B1</v>
+      </c>
+      <c r="AV32" s="18" t="str">
+        <f t="shared" si="17"/>
+        <v>B1</v>
+      </c>
+      <c r="AW32" s="18" t="str">
+        <f t="shared" si="18"/>
         <v>A2</v>
-      </c>
-      <c r="AT32" s="18" t="str">
-        <f t="shared" si="16"/>
-        <v>A2</v>
-      </c>
-      <c r="AU32" s="18" t="str">
-        <f t="shared" si="17"/>
-        <v>A1</v>
-      </c>
-      <c r="AV32" s="18" t="str">
-        <f t="shared" si="18"/>
-        <v>A1</v>
-      </c>
-      <c r="AW32" s="18" t="str">
-        <f t="shared" si="19"/>
-        <v>A1</v>
       </c>
       <c r="AX32" s="18"/>
       <c r="AY32" s="24">
         <v>500</v>
       </c>
       <c r="AZ32" s="19">
+        <f t="shared" si="19"/>
+        <v>379</v>
+      </c>
+      <c r="BA32" s="4">
         <f t="shared" si="20"/>
-        <v>379</v>
-      </c>
-      <c r="BA32" s="4">
-        <f t="shared" si="21"/>
         <v>76</v>
       </c>
       <c r="BB32" s="4">
@@ -6880,7 +6881,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:56">
       <c r="A33" s="2">
         <v>31</v>
       </c>
@@ -6888,7 +6889,7 @@
         <v>3114</v>
       </c>
       <c r="C33" s="31" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D33" s="32">
         <v>9457600537</v>
@@ -6896,14 +6897,14 @@
       <c r="E33" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F33" s="48" t="s">
-        <v>151</v>
+      <c r="F33" s="36" t="s">
+        <v>150</v>
       </c>
       <c r="G33" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="H33" s="31" t="s">
         <v>125</v>
-      </c>
-      <c r="H33" s="31" t="s">
-        <v>126</v>
       </c>
       <c r="I33" s="26" t="s">
         <v>30</v>
@@ -6978,65 +6979,65 @@
         <v>39</v>
       </c>
       <c r="AG33" s="20">
+        <f t="shared" si="4"/>
+        <v>72</v>
+      </c>
+      <c r="AH33" s="20">
         <f t="shared" si="5"/>
-        <v>72</v>
-      </c>
-      <c r="AH33" s="20">
+        <v>73</v>
+      </c>
+      <c r="AI33" s="20">
         <f t="shared" si="6"/>
-        <v>73</v>
-      </c>
-      <c r="AI33" s="20">
+        <v>78</v>
+      </c>
+      <c r="AJ33" s="20">
         <f t="shared" si="7"/>
-        <v>78</v>
-      </c>
-      <c r="AJ33" s="20">
+        <v>74</v>
+      </c>
+      <c r="AK33" s="20">
         <f t="shared" si="8"/>
-        <v>74</v>
-      </c>
-      <c r="AK33" s="20">
-        <f t="shared" si="9"/>
         <v>71</v>
       </c>
       <c r="AL33" s="20"/>
       <c r="AM33" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="27"/>
         <v>90</v>
       </c>
       <c r="AN33" s="21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>91</v>
       </c>
       <c r="AO33" s="21">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>98</v>
       </c>
       <c r="AP33" s="21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="30"/>
         <v>93</v>
       </c>
       <c r="AQ33" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>89</v>
       </c>
       <c r="AR33" s="21"/>
       <c r="AS33" s="21" t="str">
+        <f t="shared" si="14"/>
+        <v>A2</v>
+      </c>
+      <c r="AT33" s="21" t="str">
         <f t="shared" si="15"/>
-        <v>A2</v>
-      </c>
-      <c r="AT33" s="21" t="str">
+        <v>A1</v>
+      </c>
+      <c r="AU33" s="21" t="str">
         <f t="shared" si="16"/>
         <v>A1</v>
       </c>
-      <c r="AU33" s="21" t="str">
+      <c r="AV33" s="21" t="str">
         <f t="shared" si="17"/>
         <v>A1</v>
       </c>
-      <c r="AV33" s="21" t="str">
+      <c r="AW33" s="21" t="str">
         <f t="shared" si="18"/>
-        <v>A1</v>
-      </c>
-      <c r="AW33" s="21" t="str">
-        <f t="shared" si="19"/>
         <v>A2</v>
       </c>
       <c r="AX33" s="21"/>
@@ -7044,11 +7045,11 @@
         <v>400</v>
       </c>
       <c r="AZ33" s="22">
+        <f t="shared" si="19"/>
+        <v>368</v>
+      </c>
+      <c r="BA33" s="5">
         <f t="shared" si="20"/>
-        <v>368</v>
-      </c>
-      <c r="BA33" s="5">
-        <f t="shared" si="21"/>
         <v>92</v>
       </c>
       <c r="BB33" s="2">
@@ -7058,10 +7059,10 @@
         <v>170</v>
       </c>
       <c r="BD33" s="34">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="34" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:56">
       <c r="A34" s="4">
         <v>32</v>
       </c>
@@ -7069,7 +7070,7 @@
         <v>2867</v>
       </c>
       <c r="C34" s="29" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D34" s="24">
         <v>9536303408</v>
@@ -7077,14 +7078,14 @@
       <c r="E34" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F34" s="47" t="s">
-        <v>163</v>
+      <c r="F34" s="35" t="s">
+        <v>162</v>
       </c>
       <c r="G34" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="H34" s="29" t="s">
         <v>128</v>
-      </c>
-      <c r="H34" s="29" t="s">
-        <v>129</v>
       </c>
       <c r="I34" s="23">
         <v>20</v>
@@ -7159,65 +7160,65 @@
         <v>39</v>
       </c>
       <c r="AG34" s="17">
+        <f t="shared" si="4"/>
+        <v>98</v>
+      </c>
+      <c r="AH34" s="17">
         <f t="shared" si="5"/>
-        <v>98</v>
-      </c>
-      <c r="AH34" s="17">
+        <v>89</v>
+      </c>
+      <c r="AI34" s="17">
         <f t="shared" si="6"/>
-        <v>89</v>
-      </c>
-      <c r="AI34" s="17">
+        <v>97</v>
+      </c>
+      <c r="AJ34" s="17">
         <f t="shared" si="7"/>
-        <v>97</v>
-      </c>
-      <c r="AJ34" s="17">
+        <v>99</v>
+      </c>
+      <c r="AK34" s="17">
         <f t="shared" si="8"/>
-        <v>99</v>
-      </c>
-      <c r="AK34" s="17">
-        <f t="shared" si="9"/>
         <v>100</v>
       </c>
       <c r="AL34" s="17"/>
       <c r="AM34" s="18">
-        <f t="shared" si="10"/>
-        <v>123</v>
+        <f>ROUND(AG34/100*100,0)</f>
+        <v>98</v>
       </c>
       <c r="AN34" s="18">
-        <f t="shared" si="11"/>
-        <v>111</v>
+        <f>ROUND(AH34/100*100,0)</f>
+        <v>89</v>
       </c>
       <c r="AO34" s="18">
-        <f t="shared" si="12"/>
-        <v>121</v>
+        <f>ROUND(AI34/100*100,0)</f>
+        <v>97</v>
       </c>
       <c r="AP34" s="18">
-        <f t="shared" si="13"/>
-        <v>124</v>
+        <f>ROUND(AJ34/100*100,0)</f>
+        <v>99</v>
       </c>
       <c r="AQ34" s="18">
-        <f t="shared" si="14"/>
-        <v>125</v>
+        <f>ROUND(AK34/100*100,0)</f>
+        <v>100</v>
       </c>
       <c r="AR34" s="18"/>
       <c r="AS34" s="18" t="str">
+        <f t="shared" si="14"/>
+        <v>A1</v>
+      </c>
+      <c r="AT34" s="18" t="str">
         <f t="shared" si="15"/>
-        <v>A1</v>
-      </c>
-      <c r="AT34" s="18" t="str">
+        <v>A2</v>
+      </c>
+      <c r="AU34" s="18" t="str">
         <f t="shared" si="16"/>
         <v>A1</v>
       </c>
-      <c r="AU34" s="18" t="str">
+      <c r="AV34" s="18" t="str">
         <f t="shared" si="17"/>
         <v>A1</v>
       </c>
-      <c r="AV34" s="18" t="str">
+      <c r="AW34" s="18" t="str">
         <f t="shared" si="18"/>
-        <v>A1</v>
-      </c>
-      <c r="AW34" s="18" t="str">
-        <f t="shared" si="19"/>
         <v>A1</v>
       </c>
       <c r="AX34" s="18"/>
@@ -7225,11 +7226,11 @@
         <v>500</v>
       </c>
       <c r="AZ34" s="19">
+        <f t="shared" si="19"/>
+        <v>483</v>
+      </c>
+      <c r="BA34" s="4">
         <f t="shared" si="20"/>
-        <v>483</v>
-      </c>
-      <c r="BA34" s="4">
-        <f t="shared" si="21"/>
         <v>97</v>
       </c>
       <c r="BB34" s="4">
@@ -7242,7 +7243,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:56" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:56">
       <c r="A35" s="25">
         <v>33</v>
       </c>
@@ -7250,7 +7251,7 @@
         <v>3157</v>
       </c>
       <c r="C35" s="28" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D35" s="2">
         <v>7505094462</v>
@@ -7258,14 +7259,14 @@
       <c r="E35" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F35" s="48" t="s">
-        <v>164</v>
+      <c r="F35" s="36" t="s">
+        <v>163</v>
       </c>
       <c r="G35" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="H35" s="31" t="s">
         <v>131</v>
-      </c>
-      <c r="H35" s="31" t="s">
-        <v>132</v>
       </c>
       <c r="I35" s="26" t="s">
         <v>30</v>
@@ -7340,65 +7341,65 @@
         <v>40</v>
       </c>
       <c r="AG35" s="20">
+        <f t="shared" si="4"/>
+        <v>72</v>
+      </c>
+      <c r="AH35" s="20">
         <f t="shared" si="5"/>
-        <v>72</v>
-      </c>
-      <c r="AH35" s="20">
+        <v>66</v>
+      </c>
+      <c r="AI35" s="20">
         <f t="shared" si="6"/>
-        <v>66</v>
-      </c>
-      <c r="AI35" s="20">
+        <v>78</v>
+      </c>
+      <c r="AJ35" s="20">
         <f t="shared" si="7"/>
-        <v>78</v>
-      </c>
-      <c r="AJ35" s="20">
+        <v>73</v>
+      </c>
+      <c r="AK35" s="20">
         <f t="shared" si="8"/>
-        <v>73</v>
-      </c>
-      <c r="AK35" s="20">
-        <f t="shared" si="9"/>
         <v>74</v>
       </c>
       <c r="AL35" s="20"/>
       <c r="AM35" s="21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="27"/>
         <v>90</v>
       </c>
       <c r="AN35" s="21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="28"/>
         <v>83</v>
       </c>
       <c r="AO35" s="21">
-        <f t="shared" si="12"/>
+        <f t="shared" si="29"/>
         <v>98</v>
       </c>
       <c r="AP35" s="21">
-        <f t="shared" si="13"/>
+        <f t="shared" si="30"/>
         <v>91</v>
       </c>
       <c r="AQ35" s="21">
-        <f t="shared" si="14"/>
+        <f t="shared" si="31"/>
         <v>93</v>
       </c>
       <c r="AR35" s="21"/>
       <c r="AS35" s="21" t="str">
+        <f t="shared" si="14"/>
+        <v>A2</v>
+      </c>
+      <c r="AT35" s="21" t="str">
         <f t="shared" si="15"/>
         <v>A2</v>
       </c>
-      <c r="AT35" s="21" t="str">
+      <c r="AU35" s="21" t="str">
         <f t="shared" si="16"/>
-        <v>A2</v>
-      </c>
-      <c r="AU35" s="21" t="str">
+        <v>A1</v>
+      </c>
+      <c r="AV35" s="21" t="str">
         <f t="shared" si="17"/>
         <v>A1</v>
       </c>
-      <c r="AV35" s="21" t="str">
+      <c r="AW35" s="21" t="str">
         <f t="shared" si="18"/>
-        <v>A1</v>
-      </c>
-      <c r="AW35" s="21" t="str">
-        <f t="shared" si="19"/>
         <v>A1</v>
       </c>
       <c r="AX35" s="21"/>
@@ -7406,11 +7407,11 @@
         <v>400</v>
       </c>
       <c r="AZ35" s="22">
+        <f t="shared" si="19"/>
+        <v>363</v>
+      </c>
+      <c r="BA35" s="5">
         <f t="shared" si="20"/>
-        <v>363</v>
-      </c>
-      <c r="BA35" s="5">
-        <f t="shared" si="21"/>
         <v>91</v>
       </c>
       <c r="BB35" s="2">
@@ -7420,10 +7421,11 @@
         <v>170</v>
       </c>
       <c r="BD35" s="34">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="D1:D35" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <mergeCells count="9">
     <mergeCell ref="U1:Z1"/>
     <mergeCell ref="AA1:AF1"/>
